--- a/RS01SBPS/Omaha_Cal_Info_RS01SBPS_00001.xlsx
+++ b/RS01SBPS/Omaha_Cal_Info_RS01SBPS_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Documents\Project Info\WHOI\Marine Integration - OOI\OOInet Migration\Test and Commissioning OOI\Cabled Instruments\Repaired GIT 20150715\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9612"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -17,7 +12,7 @@
     <sheet name="134_CC_tcarray" sheetId="4" r:id="rId3"/>
     <sheet name="134_CC_taarray" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -377,12 +372,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -601,7 +596,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -843,6 +838,9 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,7 +904,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -938,10 +936,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -973,7 +970,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1149,23 +1145,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="46" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="46" customFormat="1" ht="30">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1211,7 @@
       <c r="Y1" s="45"/>
       <c r="Z1" s="45"/>
     </row>
-    <row r="2" spans="1:26" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="61" t="s">
         <v>14</v>
       </c>
@@ -1267,7 +1263,7 @@
       <c r="Y2" s="26"/>
       <c r="Z2" s="26"/>
     </row>
-    <row r="3" spans="1:26" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="32" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="61" t="s">
         <v>21</v>
       </c>
@@ -1319,8 +1315,8 @@
       <c r="Y3" s="26"/>
       <c r="Z3" s="26"/>
     </row>
-    <row r="4" spans="1:26" s="32" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="32" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="5" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -1332,7 +1328,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="7"/>
@@ -1344,7 +1340,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="7"/>
@@ -1356,7 +1352,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="7"/>
@@ -1368,7 +1364,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="7"/>
@@ -1380,40 +1376,40 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="11"/>
     </row>
-    <row r="13" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="17" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="18" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="19" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="20" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="21" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="22" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="23" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="24" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="25" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="26" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="27" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="28" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="29" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="30" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="31" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="32" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="33" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="34" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="35" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="36" s="5" customFormat="1" ht="15.75" customHeight="1"/>
+    <row r="37" s="5" customFormat="1" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1426,25 +1422,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA350"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100:XFD124"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.44140625" style="86" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" style="86" customWidth="1"/>
+    <col min="7" max="7" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="5" customFormat="1" ht="30">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="34"/>
@@ -1495,7 +1491,7 @@
       <c r="Y2" s="14"/>
       <c r="Z2" s="14"/>
     </row>
-    <row r="3" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A3" s="33" t="s">
         <v>24</v>
       </c>
@@ -1535,7 +1531,7 @@
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
     </row>
-    <row r="4" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A4" s="33" t="s">
         <v>24</v>
       </c>
@@ -1575,7 +1571,7 @@
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
     </row>
-    <row r="5" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="27"/>
       <c r="B5" s="38"/>
       <c r="C5" s="34"/>
@@ -1603,7 +1599,7 @@
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
     </row>
-    <row r="6" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="53" t="s">
         <v>101</v>
       </c>
@@ -1643,7 +1639,7 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
     </row>
-    <row r="7" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="53" t="s">
         <v>101</v>
       </c>
@@ -1683,7 +1679,7 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
     </row>
-    <row r="8" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="27"/>
       <c r="B8" s="38"/>
       <c r="C8" s="34"/>
@@ -1711,7 +1707,7 @@
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
     </row>
-    <row r="9" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="33" t="s">
         <v>30</v>
       </c>
@@ -1751,7 +1747,7 @@
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
     </row>
-    <row r="10" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="33" t="s">
         <v>30</v>
       </c>
@@ -1791,7 +1787,7 @@
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
     </row>
-    <row r="11" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="33" t="s">
         <v>30</v>
       </c>
@@ -1831,7 +1827,7 @@
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
     </row>
-    <row r="12" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="33" t="s">
         <v>30</v>
       </c>
@@ -1871,7 +1867,7 @@
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
     </row>
-    <row r="13" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="33" t="s">
         <v>30</v>
       </c>
@@ -1887,8 +1883,8 @@
       <c r="E13" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="69">
-        <v>0.9698</v>
+      <c r="F13" s="91">
+        <v>1</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="14"/>
@@ -1911,7 +1907,7 @@
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
     </row>
-    <row r="14" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="33" t="s">
         <v>30</v>
       </c>
@@ -1927,8 +1923,8 @@
       <c r="E14" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="69">
-        <v>0.24840000000000001</v>
+      <c r="F14" s="91">
+        <v>0</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -1950,7 +1946,7 @@
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
     </row>
-    <row r="15" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="33" t="s">
         <v>30</v>
       </c>
@@ -1990,7 +1986,7 @@
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
     </row>
-    <row r="16" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="27"/>
       <c r="B16" s="38"/>
       <c r="C16" s="34"/>
@@ -2018,7 +2014,7 @@
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
     </row>
-    <row r="17" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A17" s="66" t="s">
         <v>20</v>
       </c>
@@ -2099,7 +2095,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A18" s="66" t="s">
         <v>20</v>
       </c>
@@ -2180,7 +2176,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A19" s="66" t="s">
         <v>20</v>
       </c>
@@ -2261,7 +2257,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A20" s="66" t="s">
         <v>20</v>
       </c>
@@ -2302,7 +2298,7 @@
       <c r="Z20"/>
       <c r="AA20"/>
     </row>
-    <row r="21" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="27"/>
       <c r="B21" s="26"/>
       <c r="C21" s="34"/>
@@ -2330,7 +2326,7 @@
       <c r="Y21" s="17"/>
       <c r="Z21" s="17"/>
     </row>
-    <row r="22" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="33" t="s">
         <v>39</v>
       </c>
@@ -2370,7 +2366,7 @@
       <c r="Y22" s="17"/>
       <c r="Z22" s="17"/>
     </row>
-    <row r="23" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="33" t="s">
         <v>39</v>
       </c>
@@ -2410,7 +2406,7 @@
       <c r="Y23" s="17"/>
       <c r="Z23" s="17"/>
     </row>
-    <row r="24" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="33" t="s">
         <v>39</v>
       </c>
@@ -2450,7 +2446,7 @@
       <c r="Y24" s="17"/>
       <c r="Z24" s="17"/>
     </row>
-    <row r="25" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="33" t="s">
         <v>39</v>
       </c>
@@ -2490,7 +2486,7 @@
       <c r="Y25" s="14"/>
       <c r="Z25" s="14"/>
     </row>
-    <row r="26" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="33" t="s">
         <v>39</v>
       </c>
@@ -2530,7 +2526,7 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
     </row>
-    <row r="27" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A27" s="33" t="s">
         <v>39</v>
       </c>
@@ -2570,7 +2566,7 @@
       <c r="Y27" s="17"/>
       <c r="Z27" s="17"/>
     </row>
-    <row r="28" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="27"/>
       <c r="B28" s="38"/>
       <c r="C28" s="34"/>
@@ -2598,7 +2594,7 @@
       <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
     </row>
-    <row r="29" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="27" t="s">
         <v>44</v>
       </c>
@@ -2638,7 +2634,7 @@
       <c r="Y29" s="17"/>
       <c r="Z29" s="17"/>
     </row>
-    <row r="30" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A30" s="27" t="s">
         <v>44</v>
       </c>
@@ -2678,7 +2674,7 @@
       <c r="Y30" s="17"/>
       <c r="Z30" s="17"/>
     </row>
-    <row r="31" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A31" s="27" t="s">
         <v>44</v>
       </c>
@@ -2718,7 +2714,7 @@
       <c r="Y31" s="17"/>
       <c r="Z31" s="17"/>
     </row>
-    <row r="32" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A32" s="27" t="s">
         <v>44</v>
       </c>
@@ -2758,7 +2754,7 @@
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
     </row>
-    <row r="33" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="27" t="s">
         <v>44</v>
       </c>
@@ -2797,7 +2793,7 @@
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
     </row>
-    <row r="34" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A34" s="27" t="s">
         <v>44</v>
       </c>
@@ -2837,7 +2833,7 @@
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
     </row>
-    <row r="35" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A35" s="27"/>
       <c r="B35" s="38"/>
       <c r="C35" s="34"/>
@@ -2865,7 +2861,7 @@
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
     </row>
-    <row r="36" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="36" t="s">
         <v>17</v>
       </c>
@@ -2903,7 +2899,7 @@
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
     </row>
-    <row r="37" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A37" s="27"/>
       <c r="B37" s="38"/>
       <c r="C37" s="34"/>
@@ -2931,7 +2927,7 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
     </row>
-    <row r="38" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A38" s="33" t="s">
         <v>28</v>
       </c>
@@ -2971,7 +2967,7 @@
       <c r="Y38" s="17"/>
       <c r="Z38" s="17"/>
     </row>
-    <row r="39" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A39" s="27"/>
       <c r="B39" s="38"/>
       <c r="C39" s="34"/>
@@ -2999,7 +2995,7 @@
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
     </row>
-    <row r="40" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="33" t="s">
         <v>45</v>
       </c>
@@ -3039,7 +3035,7 @@
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
     </row>
-    <row r="41" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A41" s="33" t="s">
         <v>45</v>
       </c>
@@ -3079,7 +3075,7 @@
       <c r="Y41" s="14"/>
       <c r="Z41" s="14"/>
     </row>
-    <row r="42" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A42" s="37"/>
       <c r="B42" s="38"/>
       <c r="C42" s="34"/>
@@ -3107,7 +3103,7 @@
       <c r="Y42" s="14"/>
       <c r="Z42" s="14"/>
     </row>
-    <row r="43" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A43" s="33" t="s">
         <v>47</v>
       </c>
@@ -3147,7 +3143,7 @@
       <c r="Y43" s="14"/>
       <c r="Z43" s="14"/>
     </row>
-    <row r="44" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A44" s="33" t="s">
         <v>47</v>
       </c>
@@ -3187,7 +3183,7 @@
       <c r="Y44" s="14"/>
       <c r="Z44" s="14"/>
     </row>
-    <row r="45" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A45" s="33" t="s">
         <v>47</v>
       </c>
@@ -3227,7 +3223,7 @@
       <c r="Y45" s="14"/>
       <c r="Z45" s="14"/>
     </row>
-    <row r="46" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A46" s="33" t="s">
         <v>47</v>
       </c>
@@ -3267,7 +3263,7 @@
       <c r="Y46" s="14"/>
       <c r="Z46" s="14"/>
     </row>
-    <row r="47" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A47" s="33" t="s">
         <v>47</v>
       </c>
@@ -3307,7 +3303,7 @@
       <c r="Y47" s="14"/>
       <c r="Z47" s="14"/>
     </row>
-    <row r="48" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A48" s="33" t="s">
         <v>47</v>
       </c>
@@ -3347,7 +3343,7 @@
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
     </row>
-    <row r="49" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A49" s="33" t="s">
         <v>47</v>
       </c>
@@ -3387,7 +3383,7 @@
       <c r="Y49" s="13"/>
       <c r="Z49" s="13"/>
     </row>
-    <row r="50" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A50" s="33" t="s">
         <v>47</v>
       </c>
@@ -3427,7 +3423,7 @@
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
     </row>
-    <row r="51" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A51" s="33"/>
       <c r="B51" s="33"/>
       <c r="C51" s="34"/>
@@ -3455,7 +3451,7 @@
       <c r="Y51" s="13"/>
       <c r="Z51" s="13"/>
     </row>
-    <row r="52" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A52" s="27" t="s">
         <v>59</v>
       </c>
@@ -3495,7 +3491,7 @@
       <c r="Y52" s="13"/>
       <c r="Z52" s="13"/>
     </row>
-    <row r="53" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A53" s="27" t="s">
         <v>59</v>
       </c>
@@ -3535,7 +3531,7 @@
       <c r="Y53" s="13"/>
       <c r="Z53" s="13"/>
     </row>
-    <row r="54" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A54" s="27" t="s">
         <v>59</v>
       </c>
@@ -3575,7 +3571,7 @@
       <c r="Y54" s="13"/>
       <c r="Z54" s="13"/>
     </row>
-    <row r="55" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A55" s="27" t="s">
         <v>59</v>
       </c>
@@ -3615,7 +3611,7 @@
       <c r="Y55" s="13"/>
       <c r="Z55" s="13"/>
     </row>
-    <row r="56" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A56" s="27" t="s">
         <v>59</v>
       </c>
@@ -3631,8 +3627,8 @@
       <c r="E56" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F56" s="69">
-        <v>0.9698</v>
+      <c r="F56" s="91">
+        <v>1</v>
       </c>
       <c r="G56" s="35"/>
       <c r="H56" s="14"/>
@@ -3655,7 +3651,7 @@
       <c r="Y56" s="14"/>
       <c r="Z56" s="14"/>
     </row>
-    <row r="57" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A57" s="27" t="s">
         <v>59</v>
       </c>
@@ -3671,8 +3667,8 @@
       <c r="E57" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F57" s="69">
-        <v>0.24840000000000001</v>
+      <c r="F57" s="91">
+        <v>0</v>
       </c>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
@@ -3694,7 +3690,7 @@
       <c r="Y57" s="14"/>
       <c r="Z57" s="14"/>
     </row>
-    <row r="58" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A58" s="27" t="s">
         <v>59</v>
       </c>
@@ -3734,7 +3730,7 @@
       <c r="Y58" s="14"/>
       <c r="Z58" s="14"/>
     </row>
-    <row r="59" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A59" s="33"/>
       <c r="B59" s="38"/>
       <c r="C59" s="34"/>
@@ -3762,7 +3758,7 @@
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
     </row>
-    <row r="60" spans="1:27" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" s="5" customFormat="1" thickBot="1">
       <c r="A60" s="63" t="s">
         <v>23</v>
       </c>
@@ -3843,7 +3839,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:27" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" s="5" customFormat="1" thickBot="1">
       <c r="A61" s="63" t="s">
         <v>23</v>
       </c>
@@ -3924,7 +3920,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="62" spans="1:27" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" s="5" customFormat="1" thickBot="1">
       <c r="A62" s="63" t="s">
         <v>23</v>
       </c>
@@ -4005,7 +4001,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A63" s="63" t="s">
         <v>23</v>
       </c>
@@ -4046,7 +4042,7 @@
       <c r="Z63"/>
       <c r="AA63"/>
     </row>
-    <row r="64" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A64" s="37"/>
       <c r="B64" s="26"/>
       <c r="C64" s="34"/>
@@ -4074,7 +4070,7 @@
       <c r="Y64" s="13"/>
       <c r="Z64" s="13"/>
     </row>
-    <row r="65" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A65" s="39" t="s">
         <v>82</v>
       </c>
@@ -4114,7 +4110,7 @@
       <c r="Y65" s="13"/>
       <c r="Z65" s="13"/>
     </row>
-    <row r="66" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A66" s="39" t="s">
         <v>82</v>
       </c>
@@ -4154,7 +4150,7 @@
       <c r="Y66" s="13"/>
       <c r="Z66" s="13"/>
     </row>
-    <row r="67" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A67" s="39" t="s">
         <v>82</v>
       </c>
@@ -4194,7 +4190,7 @@
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
     </row>
-    <row r="68" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A68" s="39" t="s">
         <v>82</v>
       </c>
@@ -4234,7 +4230,7 @@
       <c r="Y68" s="13"/>
       <c r="Z68" s="13"/>
     </row>
-    <row r="69" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A69" s="39" t="s">
         <v>82</v>
       </c>
@@ -4274,7 +4270,7 @@
       <c r="Y69" s="13"/>
       <c r="Z69" s="13"/>
     </row>
-    <row r="70" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A70" s="39" t="s">
         <v>82</v>
       </c>
@@ -4314,7 +4310,7 @@
       <c r="Y70" s="14"/>
       <c r="Z70" s="14"/>
     </row>
-    <row r="71" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A71" s="39" t="s">
         <v>82</v>
       </c>
@@ -4354,7 +4350,7 @@
       <c r="Y71" s="13"/>
       <c r="Z71" s="13"/>
     </row>
-    <row r="72" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A72" s="39" t="s">
         <v>82</v>
       </c>
@@ -4394,7 +4390,7 @@
       <c r="Y72" s="13"/>
       <c r="Z72" s="13"/>
     </row>
-    <row r="73" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A73" s="27"/>
       <c r="B73" s="33"/>
       <c r="C73" s="34"/>
@@ -4422,7 +4418,7 @@
       <c r="Y73" s="13"/>
       <c r="Z73" s="13"/>
     </row>
-    <row r="74" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A74" s="33" t="s">
         <v>61</v>
       </c>
@@ -4462,7 +4458,7 @@
       <c r="Y74" s="14"/>
       <c r="Z74" s="14"/>
     </row>
-    <row r="75" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A75" s="33" t="s">
         <v>61</v>
       </c>
@@ -4502,7 +4498,7 @@
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
     </row>
-    <row r="76" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A76" s="33" t="s">
         <v>61</v>
       </c>
@@ -4542,7 +4538,7 @@
       <c r="Y76" s="13"/>
       <c r="Z76" s="13"/>
     </row>
-    <row r="77" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A77" s="33"/>
       <c r="B77" s="33"/>
       <c r="C77" s="34"/>
@@ -4570,7 +4566,7 @@
       <c r="Y77" s="13"/>
       <c r="Z77" s="13"/>
     </row>
-    <row r="78" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A78" s="33" t="s">
         <v>65</v>
       </c>
@@ -4610,7 +4606,7 @@
       <c r="Y78" s="14"/>
       <c r="Z78" s="14"/>
     </row>
-    <row r="79" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A79" s="33" t="s">
         <v>65</v>
       </c>
@@ -4650,7 +4646,7 @@
       <c r="Y79" s="13"/>
       <c r="Z79" s="13"/>
     </row>
-    <row r="80" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A80" s="33" t="s">
         <v>65</v>
       </c>
@@ -4690,7 +4686,7 @@
       <c r="Y80" s="13"/>
       <c r="Z80" s="13"/>
     </row>
-    <row r="81" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A81" s="33"/>
       <c r="B81" s="38"/>
       <c r="C81" s="34"/>
@@ -4718,7 +4714,7 @@
       <c r="Y81" s="13"/>
       <c r="Z81" s="13"/>
     </row>
-    <row r="82" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A82" s="33" t="s">
         <v>72</v>
       </c>
@@ -4758,7 +4754,7 @@
       <c r="Y82" s="13"/>
       <c r="Z82" s="13"/>
     </row>
-    <row r="83" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A83" s="33" t="s">
         <v>72</v>
       </c>
@@ -4798,7 +4794,7 @@
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
     </row>
-    <row r="84" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A84" s="33" t="s">
         <v>72</v>
       </c>
@@ -4838,7 +4834,7 @@
       <c r="Y84" s="14"/>
       <c r="Z84" s="14"/>
     </row>
-    <row r="85" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A85" s="33" t="s">
         <v>72</v>
       </c>
@@ -4878,7 +4874,7 @@
       <c r="Y85" s="13"/>
       <c r="Z85" s="13"/>
     </row>
-    <row r="86" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A86" s="33" t="s">
         <v>72</v>
       </c>
@@ -4918,7 +4914,7 @@
       <c r="Y86" s="17"/>
       <c r="Z86" s="17"/>
     </row>
-    <row r="87" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A87" s="37"/>
       <c r="B87" s="38"/>
       <c r="C87" s="34"/>
@@ -4946,7 +4942,7 @@
       <c r="Y87" s="14"/>
       <c r="Z87" s="14"/>
     </row>
-    <row r="88" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A88" s="27" t="s">
         <v>57</v>
       </c>
@@ -4985,7 +4981,7 @@
       <c r="Y88" s="17"/>
       <c r="Z88" s="17"/>
     </row>
-    <row r="89" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A89" s="27" t="s">
         <v>57</v>
       </c>
@@ -5025,7 +5021,7 @@
       <c r="Y89" s="17"/>
       <c r="Z89" s="17"/>
     </row>
-    <row r="90" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="34"/>
@@ -5053,12 +5049,12 @@
       <c r="Y90" s="17"/>
       <c r="Z90" s="17"/>
     </row>
-    <row r="91" spans="1:27" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:27" s="5" customFormat="1" thickBot="1">
       <c r="A91" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="B91" s="94" t="s">
-        <v>16</v>
+      <c r="B91" s="97" t="s">
+        <v>22</v>
       </c>
       <c r="C91" s="95">
         <v>1</v>
@@ -5133,12 +5129,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="92" spans="1:27" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:27" s="5" customFormat="1" thickBot="1">
       <c r="A92" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="B92" s="94" t="s">
-        <v>16</v>
+      <c r="B92" s="97" t="s">
+        <v>22</v>
       </c>
       <c r="C92" s="95">
         <v>1</v>
@@ -5173,7 +5169,7 @@
       <c r="Z92"/>
       <c r="AA92"/>
     </row>
-    <row r="93" spans="1:27" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:27" s="5" customFormat="1" thickBot="1">
       <c r="A93" s="93" t="s">
         <v>102</v>
       </c>
@@ -5251,7 +5247,7 @@
       </c>
       <c r="AA93"/>
     </row>
-    <row r="94" spans="1:27" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:27" s="5" customFormat="1" thickBot="1">
       <c r="A94" s="93" t="s">
         <v>102</v>
       </c>
@@ -5332,7 +5328,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:27" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:27" s="5" customFormat="1" thickBot="1">
       <c r="A95" s="93" t="s">
         <v>102</v>
       </c>
@@ -5413,7 +5409,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:27" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:27" s="5" customFormat="1" thickBot="1">
       <c r="A96" s="93" t="s">
         <v>102</v>
       </c>
@@ -5494,7 +5490,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:27" s="5" customFormat="1" thickBot="1">
       <c r="A97" s="93" t="s">
         <v>102</v>
       </c>
@@ -5575,7 +5571,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:27" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:27" s="5" customFormat="1" thickBot="1">
       <c r="A98" s="93" t="s">
         <v>102</v>
       </c>
@@ -5616,7 +5612,7 @@
       <c r="Z98"/>
       <c r="AA98"/>
     </row>
-    <row r="99" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A99" s="87"/>
       <c r="B99" s="88"/>
       <c r="C99" s="89"/>
@@ -5626,7 +5622,7 @@
       <c r="G99" s="14"/>
       <c r="H99" s="92"/>
     </row>
-    <row r="100" spans="1:27" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" s="5" customFormat="1" ht="12.75">
       <c r="A100" s="50"/>
       <c r="B100" s="51"/>
       <c r="C100" s="49"/>
@@ -5654,7 +5650,7 @@
       <c r="Y100" s="14"/>
       <c r="Z100" s="14"/>
     </row>
-    <row r="101" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="10"/>
@@ -5682,7 +5678,7 @@
       <c r="Y101" s="14"/>
       <c r="Z101" s="14"/>
     </row>
-    <row r="102" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A102" s="11"/>
       <c r="B102" s="14"/>
       <c r="C102" s="21"/>
@@ -5710,7 +5706,7 @@
       <c r="Y102" s="14"/>
       <c r="Z102" s="14"/>
     </row>
-    <row r="103" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="10"/>
@@ -5738,7 +5734,7 @@
       <c r="Y103" s="14"/>
       <c r="Z103" s="14"/>
     </row>
-    <row r="104" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="10"/>
@@ -5766,7 +5762,7 @@
       <c r="Y104" s="14"/>
       <c r="Z104" s="14"/>
     </row>
-    <row r="105" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A105" s="11"/>
       <c r="B105" s="14"/>
       <c r="C105" s="21"/>
@@ -5794,7 +5790,7 @@
       <c r="Y105" s="14"/>
       <c r="Z105" s="14"/>
     </row>
-    <row r="106" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="10"/>
@@ -5822,7 +5818,7 @@
       <c r="Y106" s="14"/>
       <c r="Z106" s="14"/>
     </row>
-    <row r="107" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="10"/>
@@ -5850,7 +5846,7 @@
       <c r="Y107" s="14"/>
       <c r="Z107" s="14"/>
     </row>
-    <row r="108" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A108" s="11"/>
       <c r="B108" s="14"/>
       <c r="C108" s="21"/>
@@ -5878,7 +5874,7 @@
       <c r="Y108" s="14"/>
       <c r="Z108" s="14"/>
     </row>
-    <row r="109" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="10"/>
@@ -5906,7 +5902,7 @@
       <c r="Y109" s="14"/>
       <c r="Z109" s="14"/>
     </row>
-    <row r="110" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="10"/>
@@ -5934,7 +5930,7 @@
       <c r="Y110" s="14"/>
       <c r="Z110" s="14"/>
     </row>
-    <row r="111" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A111" s="11"/>
       <c r="B111" s="14"/>
       <c r="C111" s="21"/>
@@ -5962,7 +5958,7 @@
       <c r="Y111" s="14"/>
       <c r="Z111" s="14"/>
     </row>
-    <row r="112" spans="1:27" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" s="5" customFormat="1" ht="15">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="10"/>
@@ -5990,7 +5986,7 @@
       <c r="Y112" s="14"/>
       <c r="Z112" s="14"/>
     </row>
-    <row r="113" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="10"/>
@@ -6018,7 +6014,7 @@
       <c r="Y113" s="14"/>
       <c r="Z113" s="14"/>
     </row>
-    <row r="114" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A114" s="15"/>
       <c r="B114" s="6"/>
       <c r="C114" s="10"/>
@@ -6046,7 +6042,7 @@
       <c r="Y114" s="14"/>
       <c r="Z114" s="14"/>
     </row>
-    <row r="115" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="10"/>
@@ -6074,7 +6070,7 @@
       <c r="Y115" s="14"/>
       <c r="Z115" s="14"/>
     </row>
-    <row r="116" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="10"/>
@@ -6102,7 +6098,7 @@
       <c r="Y116" s="14"/>
       <c r="Z116" s="14"/>
     </row>
-    <row r="117" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A117" s="15"/>
       <c r="B117" s="6"/>
       <c r="C117" s="10"/>
@@ -6130,7 +6126,7 @@
       <c r="Y117" s="14"/>
       <c r="Z117" s="14"/>
     </row>
-    <row r="118" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A118" s="11"/>
       <c r="B118" s="6"/>
       <c r="C118" s="10"/>
@@ -6158,7 +6154,7 @@
       <c r="Y118" s="14"/>
       <c r="Z118" s="14"/>
     </row>
-    <row r="119" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A119" s="11"/>
       <c r="B119" s="6"/>
       <c r="C119" s="10"/>
@@ -6186,7 +6182,7 @@
       <c r="Y119" s="14"/>
       <c r="Z119" s="14"/>
     </row>
-    <row r="120" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A120" s="15"/>
       <c r="B120" s="6"/>
       <c r="C120" s="10"/>
@@ -6214,7 +6210,7 @@
       <c r="Y120" s="14"/>
       <c r="Z120" s="14"/>
     </row>
-    <row r="121" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A121" s="11"/>
       <c r="B121" s="6"/>
       <c r="C121" s="10"/>
@@ -6242,7 +6238,7 @@
       <c r="Y121" s="14"/>
       <c r="Z121" s="14"/>
     </row>
-    <row r="122" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A122" s="11"/>
       <c r="B122" s="6"/>
       <c r="C122" s="10"/>
@@ -6270,7 +6266,7 @@
       <c r="Y122" s="14"/>
       <c r="Z122" s="14"/>
     </row>
-    <row r="123" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A123" s="15"/>
       <c r="B123" s="6"/>
       <c r="C123" s="10"/>
@@ -6298,7 +6294,7 @@
       <c r="Y123" s="14"/>
       <c r="Z123" s="14"/>
     </row>
-    <row r="124" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A124" s="15"/>
       <c r="B124" s="6"/>
       <c r="C124" s="10"/>
@@ -6326,7 +6322,7 @@
       <c r="Y124" s="14"/>
       <c r="Z124" s="14"/>
     </row>
-    <row r="125" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A125" s="15"/>
       <c r="B125" s="6"/>
       <c r="C125" s="10"/>
@@ -6354,7 +6350,7 @@
       <c r="Y125" s="14"/>
       <c r="Z125" s="14"/>
     </row>
-    <row r="126" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A126" s="15"/>
       <c r="B126" s="6"/>
       <c r="C126" s="10"/>
@@ -6382,7 +6378,7 @@
       <c r="Y126" s="14"/>
       <c r="Z126" s="14"/>
     </row>
-    <row r="127" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A127" s="15"/>
       <c r="B127" s="6"/>
       <c r="C127" s="10"/>
@@ -6410,7 +6406,7 @@
       <c r="Y127" s="14"/>
       <c r="Z127" s="14"/>
     </row>
-    <row r="128" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A128" s="15"/>
       <c r="B128" s="6"/>
       <c r="C128" s="10"/>
@@ -6438,7 +6434,7 @@
       <c r="Y128" s="14"/>
       <c r="Z128" s="14"/>
     </row>
-    <row r="129" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A129" s="15"/>
       <c r="B129" s="6"/>
       <c r="C129" s="10"/>
@@ -6466,7 +6462,7 @@
       <c r="Y129" s="14"/>
       <c r="Z129" s="14"/>
     </row>
-    <row r="130" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="10"/>
@@ -6494,7 +6490,7 @@
       <c r="Y130" s="14"/>
       <c r="Z130" s="14"/>
     </row>
-    <row r="131" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="10"/>
@@ -6522,7 +6518,7 @@
       <c r="Y131" s="14"/>
       <c r="Z131" s="14"/>
     </row>
-    <row r="132" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="10"/>
@@ -6550,7 +6546,7 @@
       <c r="Y132" s="14"/>
       <c r="Z132" s="14"/>
     </row>
-    <row r="133" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="10"/>
@@ -6578,7 +6574,7 @@
       <c r="Y133" s="14"/>
       <c r="Z133" s="14"/>
     </row>
-    <row r="134" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="10"/>
@@ -6606,7 +6602,7 @@
       <c r="Y134" s="14"/>
       <c r="Z134" s="14"/>
     </row>
-    <row r="135" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A135" s="15"/>
       <c r="B135" s="6"/>
       <c r="C135" s="10"/>
@@ -6634,7 +6630,7 @@
       <c r="Y135" s="14"/>
       <c r="Z135" s="14"/>
     </row>
-    <row r="136" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A136" s="15"/>
       <c r="B136" s="6"/>
       <c r="C136" s="10"/>
@@ -6662,7 +6658,7 @@
       <c r="Y136" s="14"/>
       <c r="Z136" s="14"/>
     </row>
-    <row r="137" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A137" s="15"/>
       <c r="B137" s="6"/>
       <c r="C137" s="10"/>
@@ -6690,7 +6686,7 @@
       <c r="Y137" s="14"/>
       <c r="Z137" s="14"/>
     </row>
-    <row r="138" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A138" s="15"/>
       <c r="B138" s="6"/>
       <c r="C138" s="10"/>
@@ -6718,7 +6714,7 @@
       <c r="Y138" s="14"/>
       <c r="Z138" s="14"/>
     </row>
-    <row r="139" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A139" s="15"/>
       <c r="B139" s="6"/>
       <c r="C139" s="10"/>
@@ -6746,7 +6742,7 @@
       <c r="Y139" s="14"/>
       <c r="Z139" s="14"/>
     </row>
-    <row r="140" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A140" s="11"/>
       <c r="B140" s="6"/>
       <c r="C140" s="10"/>
@@ -6774,7 +6770,7 @@
       <c r="Y140" s="14"/>
       <c r="Z140" s="14"/>
     </row>
-    <row r="141" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A141" s="11"/>
       <c r="B141" s="6"/>
       <c r="C141" s="10"/>
@@ -6802,7 +6798,7 @@
       <c r="Y141" s="14"/>
       <c r="Z141" s="14"/>
     </row>
-    <row r="142" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A142" s="11"/>
       <c r="B142" s="6"/>
       <c r="C142" s="10"/>
@@ -6830,7 +6826,7 @@
       <c r="Y142" s="14"/>
       <c r="Z142" s="14"/>
     </row>
-    <row r="143" spans="1:26" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" s="5" customFormat="1" ht="14.25">
       <c r="A143" s="15"/>
       <c r="B143" s="6"/>
       <c r="C143" s="10"/>
@@ -6858,7 +6854,7 @@
       <c r="Y143" s="14"/>
       <c r="Z143" s="14"/>
     </row>
-    <row r="144" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A144" s="13"/>
       <c r="B144" s="11"/>
       <c r="C144" s="10"/>
@@ -6886,7 +6882,7 @@
       <c r="Y144" s="14"/>
       <c r="Z144" s="14"/>
     </row>
-    <row r="145" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="10"/>
@@ -6914,7 +6910,7 @@
       <c r="Y145" s="14"/>
       <c r="Z145" s="14"/>
     </row>
-    <row r="146" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="10"/>
@@ -6942,7 +6938,7 @@
       <c r="Y146" s="14"/>
       <c r="Z146" s="14"/>
     </row>
-    <row r="147" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="10"/>
@@ -6970,7 +6966,7 @@
       <c r="Y147" s="14"/>
       <c r="Z147" s="14"/>
     </row>
-    <row r="148" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="10"/>
@@ -6998,7 +6994,7 @@
       <c r="Y148" s="14"/>
       <c r="Z148" s="14"/>
     </row>
-    <row r="149" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="10"/>
@@ -7026,7 +7022,7 @@
       <c r="Y149" s="14"/>
       <c r="Z149" s="14"/>
     </row>
-    <row r="150" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="10"/>
@@ -7054,7 +7050,7 @@
       <c r="Y150" s="14"/>
       <c r="Z150" s="14"/>
     </row>
-    <row r="151" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="10"/>
@@ -7082,7 +7078,7 @@
       <c r="Y151" s="14"/>
       <c r="Z151" s="14"/>
     </row>
-    <row r="152" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="10"/>
@@ -7110,7 +7106,7 @@
       <c r="Y152" s="14"/>
       <c r="Z152" s="14"/>
     </row>
-    <row r="153" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="10"/>
@@ -7138,7 +7134,7 @@
       <c r="Y153" s="14"/>
       <c r="Z153" s="14"/>
     </row>
-    <row r="154" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="10"/>
@@ -7166,7 +7162,7 @@
       <c r="Y154" s="14"/>
       <c r="Z154" s="14"/>
     </row>
-    <row r="155" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="10"/>
@@ -7194,7 +7190,7 @@
       <c r="Y155" s="14"/>
       <c r="Z155" s="14"/>
     </row>
-    <row r="156" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="10"/>
@@ -7222,7 +7218,7 @@
       <c r="Y156" s="14"/>
       <c r="Z156" s="14"/>
     </row>
-    <row r="157" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="10"/>
@@ -7250,7 +7246,7 @@
       <c r="Y157" s="14"/>
       <c r="Z157" s="14"/>
     </row>
-    <row r="158" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="10"/>
@@ -7278,7 +7274,7 @@
       <c r="Y158" s="14"/>
       <c r="Z158" s="14"/>
     </row>
-    <row r="159" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="10"/>
@@ -7306,7 +7302,7 @@
       <c r="Y159" s="14"/>
       <c r="Z159" s="14"/>
     </row>
-    <row r="160" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="10"/>
@@ -7334,7 +7330,7 @@
       <c r="Y160" s="14"/>
       <c r="Z160" s="14"/>
     </row>
-    <row r="161" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="10"/>
@@ -7362,7 +7358,7 @@
       <c r="Y161" s="14"/>
       <c r="Z161" s="14"/>
     </row>
-    <row r="162" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="10"/>
@@ -7390,7 +7386,7 @@
       <c r="Y162" s="14"/>
       <c r="Z162" s="14"/>
     </row>
-    <row r="163" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="10"/>
@@ -7418,7 +7414,7 @@
       <c r="Y163" s="14"/>
       <c r="Z163" s="14"/>
     </row>
-    <row r="164" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="10"/>
@@ -7446,7 +7442,7 @@
       <c r="Y164" s="14"/>
       <c r="Z164" s="14"/>
     </row>
-    <row r="165" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="10"/>
@@ -7474,7 +7470,7 @@
       <c r="Y165" s="14"/>
       <c r="Z165" s="14"/>
     </row>
-    <row r="166" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="10"/>
@@ -7502,7 +7498,7 @@
       <c r="Y166" s="14"/>
       <c r="Z166" s="14"/>
     </row>
-    <row r="167" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="10"/>
@@ -7530,7 +7526,7 @@
       <c r="Y167" s="14"/>
       <c r="Z167" s="14"/>
     </row>
-    <row r="168" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="10"/>
@@ -7558,7 +7554,7 @@
       <c r="Y168" s="14"/>
       <c r="Z168" s="14"/>
     </row>
-    <row r="169" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="10"/>
@@ -7586,7 +7582,7 @@
       <c r="Y169" s="14"/>
       <c r="Z169" s="14"/>
     </row>
-    <row r="170" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="10"/>
@@ -7614,7 +7610,7 @@
       <c r="Y170" s="14"/>
       <c r="Z170" s="14"/>
     </row>
-    <row r="171" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A171" s="13"/>
       <c r="B171" s="13"/>
       <c r="C171" s="10"/>
@@ -7642,7 +7638,7 @@
       <c r="Y171" s="14"/>
       <c r="Z171" s="14"/>
     </row>
-    <row r="172" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A172" s="13"/>
       <c r="B172" s="11"/>
       <c r="C172" s="10"/>
@@ -7670,7 +7666,7 @@
       <c r="Y172" s="14"/>
       <c r="Z172" s="14"/>
     </row>
-    <row r="173" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A173" s="13"/>
       <c r="B173" s="6"/>
       <c r="C173" s="10"/>
@@ -7698,7 +7694,7 @@
       <c r="Y173" s="14"/>
       <c r="Z173" s="14"/>
     </row>
-    <row r="174" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A174" s="13"/>
       <c r="B174" s="13"/>
       <c r="C174" s="10"/>
@@ -7726,7 +7722,7 @@
       <c r="Y174" s="14"/>
       <c r="Z174" s="14"/>
     </row>
-    <row r="175" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="10"/>
@@ -7754,7 +7750,7 @@
       <c r="Y175" s="14"/>
       <c r="Z175" s="14"/>
     </row>
-    <row r="176" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="10"/>
@@ -7782,7 +7778,7 @@
       <c r="Y176" s="14"/>
       <c r="Z176" s="14"/>
     </row>
-    <row r="177" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A177" s="11"/>
       <c r="B177" s="13"/>
       <c r="C177" s="10"/>
@@ -7810,7 +7806,7 @@
       <c r="Y177" s="14"/>
       <c r="Z177" s="14"/>
     </row>
-    <row r="178" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A178" s="11"/>
       <c r="B178" s="13"/>
       <c r="C178" s="10"/>
@@ -7838,7 +7834,7 @@
       <c r="Y178" s="14"/>
       <c r="Z178" s="14"/>
     </row>
-    <row r="179" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A179" s="11"/>
       <c r="B179" s="13"/>
       <c r="C179" s="10"/>
@@ -7866,7 +7862,7 @@
       <c r="Y179" s="14"/>
       <c r="Z179" s="14"/>
     </row>
-    <row r="180" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A180" s="13"/>
       <c r="B180" s="13"/>
       <c r="C180" s="10"/>
@@ -7894,7 +7890,7 @@
       <c r="Y180" s="14"/>
       <c r="Z180" s="14"/>
     </row>
-    <row r="181" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A181" s="13"/>
       <c r="B181" s="11"/>
       <c r="C181" s="10"/>
@@ -7922,7 +7918,7 @@
       <c r="Y181" s="14"/>
       <c r="Z181" s="14"/>
     </row>
-    <row r="182" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A182" s="13"/>
       <c r="B182" s="11"/>
       <c r="C182" s="10"/>
@@ -7950,7 +7946,7 @@
       <c r="Y182" s="14"/>
       <c r="Z182" s="14"/>
     </row>
-    <row r="183" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A183" s="13"/>
       <c r="B183" s="17"/>
       <c r="C183" s="10"/>
@@ -7978,7 +7974,7 @@
       <c r="Y183" s="14"/>
       <c r="Z183" s="14"/>
     </row>
-    <row r="184" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A184" s="11"/>
       <c r="B184" s="13"/>
       <c r="C184" s="10"/>
@@ -8006,7 +8002,7 @@
       <c r="Y184" s="14"/>
       <c r="Z184" s="14"/>
     </row>
-    <row r="185" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A185" s="11"/>
       <c r="B185" s="13"/>
       <c r="C185" s="10"/>
@@ -8034,7 +8030,7 @@
       <c r="Y185" s="14"/>
       <c r="Z185" s="14"/>
     </row>
-    <row r="186" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A186" s="11"/>
       <c r="B186" s="17"/>
       <c r="C186" s="10"/>
@@ -8062,7 +8058,7 @@
       <c r="Y186" s="14"/>
       <c r="Z186" s="14"/>
     </row>
-    <row r="187" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A187" s="11"/>
       <c r="B187" s="13"/>
       <c r="C187" s="10"/>
@@ -8090,7 +8086,7 @@
       <c r="Y187" s="14"/>
       <c r="Z187" s="14"/>
     </row>
-    <row r="188" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A188" s="11"/>
       <c r="B188" s="13"/>
       <c r="C188" s="10"/>
@@ -8118,7 +8114,7 @@
       <c r="Y188" s="14"/>
       <c r="Z188" s="14"/>
     </row>
-    <row r="189" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A189" s="11"/>
       <c r="B189" s="17"/>
       <c r="C189" s="10"/>
@@ -8146,7 +8142,7 @@
       <c r="Y189" s="14"/>
       <c r="Z189" s="14"/>
     </row>
-    <row r="190" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="10"/>
@@ -8174,7 +8170,7 @@
       <c r="Y190" s="14"/>
       <c r="Z190" s="14"/>
     </row>
-    <row r="191" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="10"/>
@@ -8202,7 +8198,7 @@
       <c r="Y191" s="14"/>
       <c r="Z191" s="14"/>
     </row>
-    <row r="192" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A192" s="13"/>
       <c r="B192" s="17"/>
       <c r="C192" s="10"/>
@@ -8230,7 +8226,7 @@
       <c r="Y192" s="14"/>
       <c r="Z192" s="14"/>
     </row>
-    <row r="193" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A193" s="13"/>
       <c r="B193" s="6"/>
       <c r="C193" s="10"/>
@@ -8258,7 +8254,7 @@
       <c r="Y193" s="14"/>
       <c r="Z193" s="14"/>
     </row>
-    <row r="194" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A194" s="13"/>
       <c r="B194" s="6"/>
       <c r="C194" s="10"/>
@@ -8286,7 +8282,7 @@
       <c r="Y194" s="14"/>
       <c r="Z194" s="14"/>
     </row>
-    <row r="195" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A195" s="13"/>
       <c r="B195" s="17"/>
       <c r="C195" s="10"/>
@@ -8314,7 +8310,7 @@
       <c r="Y195" s="14"/>
       <c r="Z195" s="14"/>
     </row>
-    <row r="196" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="10"/>
@@ -8342,7 +8338,7 @@
       <c r="Y196" s="14"/>
       <c r="Z196" s="14"/>
     </row>
-    <row r="197" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="10"/>
@@ -8370,7 +8366,7 @@
       <c r="Y197" s="14"/>
       <c r="Z197" s="14"/>
     </row>
-    <row r="198" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A198" s="14"/>
       <c r="B198" s="14"/>
       <c r="C198" s="21"/>
@@ -8398,7 +8394,7 @@
       <c r="Y198" s="14"/>
       <c r="Z198" s="14"/>
     </row>
-    <row r="199" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A199" s="11"/>
       <c r="B199" s="14"/>
       <c r="C199" s="21"/>
@@ -8426,7 +8422,7 @@
       <c r="Y199" s="14"/>
       <c r="Z199" s="14"/>
     </row>
-    <row r="200" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A200" s="14"/>
       <c r="B200" s="14"/>
       <c r="C200" s="21"/>
@@ -8454,7 +8450,7 @@
       <c r="Y200" s="14"/>
       <c r="Z200" s="14"/>
     </row>
-    <row r="201" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A201" s="14"/>
       <c r="B201" s="14"/>
       <c r="C201" s="21"/>
@@ -8482,7 +8478,7 @@
       <c r="Y201" s="14"/>
       <c r="Z201" s="14"/>
     </row>
-    <row r="202" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A202" s="15"/>
       <c r="B202" s="11"/>
       <c r="C202" s="10"/>
@@ -8510,7 +8506,7 @@
       <c r="Y202" s="14"/>
       <c r="Z202" s="14"/>
     </row>
-    <row r="203" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A203" s="15"/>
       <c r="B203" s="11"/>
       <c r="C203" s="10"/>
@@ -8538,7 +8534,7 @@
       <c r="Y203" s="14"/>
       <c r="Z203" s="14"/>
     </row>
-    <row r="204" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A204" s="15"/>
       <c r="B204" s="11"/>
       <c r="C204" s="10"/>
@@ -8566,7 +8562,7 @@
       <c r="Y204" s="14"/>
       <c r="Z204" s="14"/>
     </row>
-    <row r="205" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A205" s="15"/>
       <c r="B205" s="11"/>
       <c r="C205" s="10"/>
@@ -8594,7 +8590,7 @@
       <c r="Y205" s="14"/>
       <c r="Z205" s="14"/>
     </row>
-    <row r="206" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A206" s="14"/>
       <c r="B206" s="14"/>
       <c r="C206" s="21"/>
@@ -8622,7 +8618,7 @@
       <c r="Y206" s="14"/>
       <c r="Z206" s="14"/>
     </row>
-    <row r="207" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A207" s="13"/>
       <c r="B207" s="11"/>
       <c r="C207" s="10"/>
@@ -8650,7 +8646,7 @@
       <c r="Y207" s="14"/>
       <c r="Z207" s="14"/>
     </row>
-    <row r="208" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A208" s="13"/>
       <c r="B208" s="11"/>
       <c r="C208" s="10"/>
@@ -8678,7 +8674,7 @@
       <c r="Y208" s="14"/>
       <c r="Z208" s="14"/>
     </row>
-    <row r="209" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A209" s="13"/>
       <c r="B209" s="11"/>
       <c r="C209" s="10"/>
@@ -8706,7 +8702,7 @@
       <c r="Y209" s="14"/>
       <c r="Z209" s="14"/>
     </row>
-    <row r="210" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A210" s="13"/>
       <c r="B210" s="11"/>
       <c r="C210" s="10"/>
@@ -8734,7 +8730,7 @@
       <c r="Y210" s="14"/>
       <c r="Z210" s="14"/>
     </row>
-    <row r="211" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A211" s="13"/>
       <c r="B211" s="11"/>
       <c r="C211" s="10"/>
@@ -8762,7 +8758,7 @@
       <c r="Y211" s="14"/>
       <c r="Z211" s="14"/>
     </row>
-    <row r="212" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A212" s="13"/>
       <c r="B212" s="11"/>
       <c r="C212" s="10"/>
@@ -8790,7 +8786,7 @@
       <c r="Y212" s="14"/>
       <c r="Z212" s="14"/>
     </row>
-    <row r="213" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A213" s="13"/>
       <c r="B213" s="11"/>
       <c r="C213" s="10"/>
@@ -8818,7 +8814,7 @@
       <c r="Y213" s="14"/>
       <c r="Z213" s="14"/>
     </row>
-    <row r="214" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="10"/>
@@ -8846,7 +8842,7 @@
       <c r="Y214" s="14"/>
       <c r="Z214" s="14"/>
     </row>
-    <row r="215" spans="1:26" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" s="5" customFormat="1" ht="15">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="10"/>
@@ -8874,7 +8870,7 @@
       <c r="Y215" s="13"/>
       <c r="Z215" s="13"/>
     </row>
-    <row r="216" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="10"/>
@@ -8902,7 +8898,7 @@
       <c r="Y216" s="13"/>
       <c r="Z216" s="13"/>
     </row>
-    <row r="217" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="10"/>
@@ -8930,7 +8926,7 @@
       <c r="Y217" s="13"/>
       <c r="Z217" s="13"/>
     </row>
-    <row r="218" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="10"/>
@@ -8958,7 +8954,7 @@
       <c r="Y218" s="13"/>
       <c r="Z218" s="13"/>
     </row>
-    <row r="219" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="10"/>
@@ -8986,7 +8982,7 @@
       <c r="Y219" s="13"/>
       <c r="Z219" s="13"/>
     </row>
-    <row r="220" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A220" s="14"/>
       <c r="B220" s="14"/>
       <c r="C220" s="21"/>
@@ -9014,7 +9010,7 @@
       <c r="Y220" s="13"/>
       <c r="Z220" s="13"/>
     </row>
-    <row r="221" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A221" s="13"/>
       <c r="B221" s="11"/>
       <c r="C221" s="19"/>
@@ -9042,7 +9038,7 @@
       <c r="Y221" s="13"/>
       <c r="Z221" s="13"/>
     </row>
-    <row r="222" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A222" s="13"/>
       <c r="B222" s="11"/>
       <c r="C222" s="19"/>
@@ -9070,7 +9066,7 @@
       <c r="Y222" s="13"/>
       <c r="Z222" s="13"/>
     </row>
-    <row r="223" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A223" s="13"/>
       <c r="B223" s="11"/>
       <c r="C223" s="19"/>
@@ -9098,7 +9094,7 @@
       <c r="Y223" s="14"/>
       <c r="Z223" s="14"/>
     </row>
-    <row r="224" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A224" s="13"/>
       <c r="B224" s="11"/>
       <c r="C224" s="19"/>
@@ -9126,7 +9122,7 @@
       <c r="Y224" s="14"/>
       <c r="Z224" s="14"/>
     </row>
-    <row r="225" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A225" s="13"/>
       <c r="B225" s="11"/>
       <c r="C225" s="19"/>
@@ -9154,7 +9150,7 @@
       <c r="Y225" s="14"/>
       <c r="Z225" s="14"/>
     </row>
-    <row r="226" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A226" s="13"/>
       <c r="B226" s="11"/>
       <c r="C226" s="19"/>
@@ -9182,7 +9178,7 @@
       <c r="Y226" s="14"/>
       <c r="Z226" s="14"/>
     </row>
-    <row r="227" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A227" s="13"/>
       <c r="B227" s="11"/>
       <c r="C227" s="19"/>
@@ -9210,7 +9206,7 @@
       <c r="Y227" s="14"/>
       <c r="Z227" s="14"/>
     </row>
-    <row r="228" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A228" s="13"/>
       <c r="B228" s="11"/>
       <c r="C228" s="19"/>
@@ -9238,7 +9234,7 @@
       <c r="Y228" s="14"/>
       <c r="Z228" s="14"/>
     </row>
-    <row r="229" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A229" s="14"/>
       <c r="B229" s="14"/>
       <c r="C229" s="21"/>
@@ -9266,7 +9262,7 @@
       <c r="Y229" s="14"/>
       <c r="Z229" s="14"/>
     </row>
-    <row r="230" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A230" s="11"/>
       <c r="B230" s="22"/>
       <c r="C230" s="21"/>
@@ -9294,7 +9290,7 @@
       <c r="Y230" s="14"/>
       <c r="Z230" s="14"/>
     </row>
-    <row r="231" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A231" s="11"/>
       <c r="B231" s="22"/>
       <c r="C231" s="21"/>
@@ -9322,7 +9318,7 @@
       <c r="Y231" s="14"/>
       <c r="Z231" s="14"/>
     </row>
-    <row r="232" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A232" s="11"/>
       <c r="B232" s="22"/>
       <c r="C232" s="21"/>
@@ -9350,7 +9346,7 @@
       <c r="Y232" s="14"/>
       <c r="Z232" s="14"/>
     </row>
-    <row r="233" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A233" s="11"/>
       <c r="B233" s="22"/>
       <c r="C233" s="21"/>
@@ -9378,7 +9374,7 @@
       <c r="Y233" s="14"/>
       <c r="Z233" s="14"/>
     </row>
-    <row r="234" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A234" s="11"/>
       <c r="B234" s="22"/>
       <c r="C234" s="21"/>
@@ -9406,7 +9402,7 @@
       <c r="Y234" s="14"/>
       <c r="Z234" s="14"/>
     </row>
-    <row r="235" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A235" s="11"/>
       <c r="B235" s="22"/>
       <c r="C235" s="21"/>
@@ -9434,7 +9430,7 @@
       <c r="Y235" s="14"/>
       <c r="Z235" s="14"/>
     </row>
-    <row r="236" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A236" s="18"/>
       <c r="B236" s="23"/>
       <c r="C236" s="24"/>
@@ -9462,7 +9458,7 @@
       <c r="Y236" s="14"/>
       <c r="Z236" s="14"/>
     </row>
-    <row r="237" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A237" s="18"/>
       <c r="B237" s="25"/>
       <c r="C237" s="24"/>
@@ -9490,7 +9486,7 @@
       <c r="Y237" s="14"/>
       <c r="Z237" s="14"/>
     </row>
-    <row r="238" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A238" s="14"/>
       <c r="B238" s="14"/>
       <c r="C238" s="21"/>
@@ -9518,7 +9514,7 @@
       <c r="Y238" s="14"/>
       <c r="Z238" s="14"/>
     </row>
-    <row r="239" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A239" s="18"/>
       <c r="B239" s="18"/>
       <c r="C239" s="24"/>
@@ -9546,7 +9542,7 @@
       <c r="Y239" s="14"/>
       <c r="Z239" s="14"/>
     </row>
-    <row r="240" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A240" s="18"/>
       <c r="B240" s="18"/>
       <c r="C240" s="24"/>
@@ -9574,7 +9570,7 @@
       <c r="Y240" s="14"/>
       <c r="Z240" s="14"/>
     </row>
-    <row r="241" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A241" s="18"/>
       <c r="B241" s="18"/>
       <c r="C241" s="24"/>
@@ -9602,7 +9598,7 @@
       <c r="Y241" s="14"/>
       <c r="Z241" s="14"/>
     </row>
-    <row r="242" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A242" s="18"/>
       <c r="B242" s="18"/>
       <c r="C242" s="24"/>
@@ -9630,7 +9626,7 @@
       <c r="Y242" s="14"/>
       <c r="Z242" s="14"/>
     </row>
-    <row r="243" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A243" s="18"/>
       <c r="B243" s="18"/>
       <c r="C243" s="24"/>
@@ -9658,7 +9654,7 @@
       <c r="Y243" s="14"/>
       <c r="Z243" s="14"/>
     </row>
-    <row r="244" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A244" s="18"/>
       <c r="B244" s="18"/>
       <c r="C244" s="24"/>
@@ -9686,7 +9682,7 @@
       <c r="Y244" s="14"/>
       <c r="Z244" s="14"/>
     </row>
-    <row r="245" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A245" s="18"/>
       <c r="B245" s="18"/>
       <c r="C245" s="24"/>
@@ -9714,7 +9710,7 @@
       <c r="Y245" s="14"/>
       <c r="Z245" s="14"/>
     </row>
-    <row r="246" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A246" s="18"/>
       <c r="B246" s="18"/>
       <c r="C246" s="19"/>
@@ -9742,7 +9738,7 @@
       <c r="Y246" s="14"/>
       <c r="Z246" s="14"/>
     </row>
-    <row r="247" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A247" s="14"/>
       <c r="B247" s="14"/>
       <c r="C247" s="21"/>
@@ -9770,7 +9766,7 @@
       <c r="Y247" s="14"/>
       <c r="Z247" s="14"/>
     </row>
-    <row r="248" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A248" s="11"/>
       <c r="B248" s="22"/>
       <c r="C248" s="21"/>
@@ -9798,7 +9794,7 @@
       <c r="Y248" s="14"/>
       <c r="Z248" s="14"/>
     </row>
-    <row r="249" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A249" s="18"/>
       <c r="B249" s="25"/>
       <c r="C249" s="24"/>
@@ -9826,7 +9822,7 @@
       <c r="Y249" s="14"/>
       <c r="Z249" s="14"/>
     </row>
-    <row r="250" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A250" s="18"/>
       <c r="B250" s="25"/>
       <c r="C250" s="24"/>
@@ -9854,7 +9850,7 @@
       <c r="Y250" s="14"/>
       <c r="Z250" s="14"/>
     </row>
-    <row r="251" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A251" s="18"/>
       <c r="B251" s="25"/>
       <c r="C251" s="24"/>
@@ -9882,7 +9878,7 @@
       <c r="Y251" s="14"/>
       <c r="Z251" s="14"/>
     </row>
-    <row r="252" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A252" s="18"/>
       <c r="B252" s="25"/>
       <c r="C252" s="24"/>
@@ -9910,7 +9906,7 @@
       <c r="Y252" s="14"/>
       <c r="Z252" s="14"/>
     </row>
-    <row r="253" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A253" s="18"/>
       <c r="B253" s="25"/>
       <c r="C253" s="24"/>
@@ -9938,7 +9934,7 @@
       <c r="Y253" s="14"/>
       <c r="Z253" s="14"/>
     </row>
-    <row r="254" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A254" s="18"/>
       <c r="B254" s="25"/>
       <c r="C254" s="24"/>
@@ -9966,7 +9962,7 @@
       <c r="Y254" s="14"/>
       <c r="Z254" s="14"/>
     </row>
-    <row r="255" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A255" s="18"/>
       <c r="B255" s="25"/>
       <c r="C255" s="24"/>
@@ -9994,7 +9990,7 @@
       <c r="Y255" s="14"/>
       <c r="Z255" s="14"/>
     </row>
-    <row r="256" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A256" s="14"/>
       <c r="B256" s="14"/>
       <c r="C256" s="21"/>
@@ -10022,7 +10018,7 @@
       <c r="Y256" s="14"/>
       <c r="Z256" s="14"/>
     </row>
-    <row r="257" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A257" s="11"/>
       <c r="B257" s="22"/>
       <c r="C257" s="21"/>
@@ -10050,7 +10046,7 @@
       <c r="Y257" s="14"/>
       <c r="Z257" s="14"/>
     </row>
-    <row r="258" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A258" s="18"/>
       <c r="B258" s="25"/>
       <c r="C258" s="24"/>
@@ -10078,7 +10074,7 @@
       <c r="Y258" s="14"/>
       <c r="Z258" s="14"/>
     </row>
-    <row r="259" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A259" s="18"/>
       <c r="B259" s="25"/>
       <c r="C259" s="24"/>
@@ -10106,7 +10102,7 @@
       <c r="Y259" s="14"/>
       <c r="Z259" s="14"/>
     </row>
-    <row r="260" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A260" s="18"/>
       <c r="B260" s="25"/>
       <c r="C260" s="24"/>
@@ -10134,7 +10130,7 @@
       <c r="Y260" s="14"/>
       <c r="Z260" s="14"/>
     </row>
-    <row r="261" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A261" s="18"/>
       <c r="B261" s="25"/>
       <c r="C261" s="24"/>
@@ -10162,7 +10158,7 @@
       <c r="Y261" s="14"/>
       <c r="Z261" s="14"/>
     </row>
-    <row r="262" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A262" s="18"/>
       <c r="B262" s="25"/>
       <c r="C262" s="24"/>
@@ -10190,7 +10186,7 @@
       <c r="Y262" s="14"/>
       <c r="Z262" s="14"/>
     </row>
-    <row r="263" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A263" s="18"/>
       <c r="B263" s="25"/>
       <c r="C263" s="24"/>
@@ -10218,7 +10214,7 @@
       <c r="Y263" s="14"/>
       <c r="Z263" s="14"/>
     </row>
-    <row r="264" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A264" s="18"/>
       <c r="B264" s="25"/>
       <c r="C264" s="24"/>
@@ -10246,7 +10242,7 @@
       <c r="Y264" s="14"/>
       <c r="Z264" s="14"/>
     </row>
-    <row r="265" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A265" s="14"/>
       <c r="B265" s="14"/>
       <c r="C265" s="21"/>
@@ -10274,7 +10270,7 @@
       <c r="Y265" s="14"/>
       <c r="Z265" s="14"/>
     </row>
-    <row r="266" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A266" s="18"/>
       <c r="B266" s="25"/>
       <c r="C266" s="24"/>
@@ -10302,7 +10298,7 @@
       <c r="Y266" s="14"/>
       <c r="Z266" s="14"/>
     </row>
-    <row r="267" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A267" s="18"/>
       <c r="B267" s="25"/>
       <c r="C267" s="24"/>
@@ -10330,7 +10326,7 @@
       <c r="Y267" s="14"/>
       <c r="Z267" s="14"/>
     </row>
-    <row r="268" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A268" s="18"/>
       <c r="B268" s="25"/>
       <c r="C268" s="24"/>
@@ -10358,7 +10354,7 @@
       <c r="Y268" s="14"/>
       <c r="Z268" s="14"/>
     </row>
-    <row r="269" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A269" s="18"/>
       <c r="B269" s="25"/>
       <c r="C269" s="24"/>
@@ -10386,7 +10382,7 @@
       <c r="Y269" s="13"/>
       <c r="Z269" s="13"/>
     </row>
-    <row r="270" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A270" s="18"/>
       <c r="B270" s="25"/>
       <c r="C270" s="24"/>
@@ -10414,7 +10410,7 @@
       <c r="Y270" s="13"/>
       <c r="Z270" s="13"/>
     </row>
-    <row r="271" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A271" s="18"/>
       <c r="B271" s="25"/>
       <c r="C271" s="24"/>
@@ -10442,7 +10438,7 @@
       <c r="Y271" s="13"/>
       <c r="Z271" s="13"/>
     </row>
-    <row r="272" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A272" s="18"/>
       <c r="B272" s="25"/>
       <c r="C272" s="24"/>
@@ -10470,7 +10466,7 @@
       <c r="Y272" s="14"/>
       <c r="Z272" s="14"/>
     </row>
-    <row r="273" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A273" s="18"/>
       <c r="B273" s="25"/>
       <c r="C273" s="24"/>
@@ -10498,7 +10494,7 @@
       <c r="Y273" s="13"/>
       <c r="Z273" s="13"/>
     </row>
-    <row r="274" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A274" s="14"/>
       <c r="B274" s="14"/>
       <c r="C274" s="21"/>
@@ -10526,7 +10522,7 @@
       <c r="Y274" s="14"/>
       <c r="Z274" s="14"/>
     </row>
-    <row r="275" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A275" s="13"/>
       <c r="B275" s="11"/>
       <c r="C275" s="19"/>
@@ -10554,7 +10550,7 @@
       <c r="Y275" s="14"/>
       <c r="Z275" s="14"/>
     </row>
-    <row r="276" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A276" s="13"/>
       <c r="B276" s="11"/>
       <c r="C276" s="19"/>
@@ -10582,7 +10578,7 @@
       <c r="Y276" s="14"/>
       <c r="Z276" s="14"/>
     </row>
-    <row r="277" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A277" s="13"/>
       <c r="B277" s="11"/>
       <c r="C277" s="19"/>
@@ -10610,7 +10606,7 @@
       <c r="Y277" s="14"/>
       <c r="Z277" s="14"/>
     </row>
-    <row r="278" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A278" s="14"/>
       <c r="B278" s="14"/>
       <c r="C278" s="21"/>
@@ -10638,7 +10634,7 @@
       <c r="Y278" s="14"/>
       <c r="Z278" s="14"/>
     </row>
-    <row r="279" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A279" s="11"/>
       <c r="B279" s="13"/>
       <c r="C279" s="10"/>
@@ -10666,7 +10662,7 @@
       <c r="Y279" s="14"/>
       <c r="Z279" s="14"/>
     </row>
-    <row r="280" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A280" s="11"/>
       <c r="B280" s="13"/>
       <c r="C280" s="10"/>
@@ -10694,7 +10690,7 @@
       <c r="Y280" s="14"/>
       <c r="Z280" s="14"/>
     </row>
-    <row r="281" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A281" s="11"/>
       <c r="B281" s="13"/>
       <c r="C281" s="10"/>
@@ -10722,7 +10718,7 @@
       <c r="Y281" s="14"/>
       <c r="Z281" s="14"/>
     </row>
-    <row r="282" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A282" s="14"/>
       <c r="B282" s="14"/>
       <c r="C282" s="21"/>
@@ -10750,7 +10746,7 @@
       <c r="Y282" s="14"/>
       <c r="Z282" s="14"/>
     </row>
-    <row r="283" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A283" s="13"/>
       <c r="B283" s="6"/>
       <c r="C283" s="10"/>
@@ -10778,7 +10774,7 @@
       <c r="Y283" s="14"/>
       <c r="Z283" s="14"/>
     </row>
-    <row r="284" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A284" s="13"/>
       <c r="B284" s="6"/>
       <c r="C284" s="10"/>
@@ -10806,7 +10802,7 @@
       <c r="Y284" s="14"/>
       <c r="Z284" s="14"/>
     </row>
-    <row r="285" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A285" s="13"/>
       <c r="B285" s="6"/>
       <c r="C285" s="10"/>
@@ -10834,7 +10830,7 @@
       <c r="Y285" s="14"/>
       <c r="Z285" s="14"/>
     </row>
-    <row r="286" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A286" s="13"/>
       <c r="B286" s="6"/>
       <c r="C286" s="10"/>
@@ -10862,7 +10858,7 @@
       <c r="Y286" s="14"/>
       <c r="Z286" s="14"/>
     </row>
-    <row r="287" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A287" s="13"/>
       <c r="B287" s="6"/>
       <c r="C287" s="10"/>
@@ -10890,7 +10886,7 @@
       <c r="Y287" s="14"/>
       <c r="Z287" s="14"/>
     </row>
-    <row r="288" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A288" s="13"/>
       <c r="B288" s="6"/>
       <c r="C288" s="10"/>
@@ -10918,7 +10914,7 @@
       <c r="Y288" s="14"/>
       <c r="Z288" s="14"/>
     </row>
-    <row r="289" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A289" s="13"/>
       <c r="B289" s="13"/>
       <c r="C289" s="10"/>
@@ -10946,7 +10942,7 @@
       <c r="Y289" s="14"/>
       <c r="Z289" s="14"/>
     </row>
-    <row r="290" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A290" s="13"/>
       <c r="B290" s="11"/>
       <c r="C290" s="10"/>
@@ -10974,7 +10970,7 @@
       <c r="Y290" s="14"/>
       <c r="Z290" s="14"/>
     </row>
-    <row r="291" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A291" s="13"/>
       <c r="B291" s="11"/>
       <c r="C291" s="10"/>
@@ -11002,7 +10998,7 @@
       <c r="Y291" s="14"/>
       <c r="Z291" s="14"/>
     </row>
-    <row r="292" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A292" s="13"/>
       <c r="B292" s="11"/>
       <c r="C292" s="10"/>
@@ -11030,7 +11026,7 @@
       <c r="Y292" s="14"/>
       <c r="Z292" s="14"/>
     </row>
-    <row r="293" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A293" s="13"/>
       <c r="B293" s="11"/>
       <c r="C293" s="10"/>
@@ -11058,7 +11054,7 @@
       <c r="Y293" s="14"/>
       <c r="Z293" s="14"/>
     </row>
-    <row r="294" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A294" s="13"/>
       <c r="B294" s="11"/>
       <c r="C294" s="10"/>
@@ -11086,7 +11082,7 @@
       <c r="Y294" s="14"/>
       <c r="Z294" s="14"/>
     </row>
-    <row r="295" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A295" s="13"/>
       <c r="B295" s="11"/>
       <c r="C295" s="10"/>
@@ -11114,7 +11110,7 @@
       <c r="Y295" s="14"/>
       <c r="Z295" s="14"/>
     </row>
-    <row r="296" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A296" s="13"/>
       <c r="B296" s="13"/>
       <c r="C296" s="10"/>
@@ -11142,7 +11138,7 @@
       <c r="Y296" s="14"/>
       <c r="Z296" s="14"/>
     </row>
-    <row r="297" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A297" s="11"/>
       <c r="B297" s="11"/>
       <c r="C297" s="10"/>
@@ -11170,7 +11166,7 @@
       <c r="Y297" s="14"/>
       <c r="Z297" s="14"/>
     </row>
-    <row r="298" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A298" s="11"/>
       <c r="B298" s="11"/>
       <c r="C298" s="10"/>
@@ -11198,7 +11194,7 @@
       <c r="Y298" s="14"/>
       <c r="Z298" s="14"/>
     </row>
-    <row r="299" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A299" s="14"/>
       <c r="B299" s="11"/>
       <c r="C299" s="10"/>
@@ -11226,7 +11222,7 @@
       <c r="Y299" s="14"/>
       <c r="Z299" s="14"/>
     </row>
-    <row r="300" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A300" s="11"/>
       <c r="B300" s="11"/>
       <c r="C300" s="10"/>
@@ -11254,7 +11250,7 @@
       <c r="Y300" s="14"/>
       <c r="Z300" s="14"/>
     </row>
-    <row r="301" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A301" s="13"/>
       <c r="B301" s="11"/>
       <c r="C301" s="10"/>
@@ -11282,7 +11278,7 @@
       <c r="Y301" s="14"/>
       <c r="Z301" s="14"/>
     </row>
-    <row r="302" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A302" s="13"/>
       <c r="B302" s="11"/>
       <c r="C302" s="10"/>
@@ -11310,7 +11306,7 @@
       <c r="Y302" s="14"/>
       <c r="Z302" s="14"/>
     </row>
-    <row r="303" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A303" s="13"/>
       <c r="B303" s="11"/>
       <c r="C303" s="10"/>
@@ -11338,7 +11334,7 @@
       <c r="Y303" s="14"/>
       <c r="Z303" s="14"/>
     </row>
-    <row r="304" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A304" s="11"/>
       <c r="B304" s="11"/>
       <c r="C304" s="10"/>
@@ -11366,7 +11362,7 @@
       <c r="Y304" s="14"/>
       <c r="Z304" s="14"/>
     </row>
-    <row r="305" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A305" s="13"/>
       <c r="B305" s="11"/>
       <c r="C305" s="10"/>
@@ -11394,7 +11390,7 @@
       <c r="Y305" s="14"/>
       <c r="Z305" s="14"/>
     </row>
-    <row r="306" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A306" s="13"/>
       <c r="B306" s="11"/>
       <c r="C306" s="10"/>
@@ -11422,7 +11418,7 @@
       <c r="Y306" s="14"/>
       <c r="Z306" s="14"/>
     </row>
-    <row r="307" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A307" s="13"/>
       <c r="B307" s="11"/>
       <c r="C307" s="10"/>
@@ -11450,7 +11446,7 @@
       <c r="Y307" s="14"/>
       <c r="Z307" s="14"/>
     </row>
-    <row r="308" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A308" s="13"/>
       <c r="B308" s="11"/>
       <c r="C308" s="10"/>
@@ -11478,7 +11474,7 @@
       <c r="Y308" s="14"/>
       <c r="Z308" s="14"/>
     </row>
-    <row r="309" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A309" s="13"/>
       <c r="B309" s="11"/>
       <c r="C309" s="10"/>
@@ -11506,7 +11502,7 @@
       <c r="Y309" s="14"/>
       <c r="Z309" s="14"/>
     </row>
-    <row r="310" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A310" s="13"/>
       <c r="B310" s="11"/>
       <c r="C310" s="10"/>
@@ -11534,7 +11530,7 @@
       <c r="Y310" s="14"/>
       <c r="Z310" s="14"/>
     </row>
-    <row r="311" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A311" s="13"/>
       <c r="B311" s="11"/>
       <c r="C311" s="10"/>
@@ -11562,7 +11558,7 @@
       <c r="Y311" s="14"/>
       <c r="Z311" s="14"/>
     </row>
-    <row r="312" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A312" s="13"/>
       <c r="B312" s="11"/>
       <c r="C312" s="10"/>
@@ -11590,7 +11586,7 @@
       <c r="Y312" s="14"/>
       <c r="Z312" s="14"/>
     </row>
-    <row r="313" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A313" s="13"/>
       <c r="B313" s="11"/>
       <c r="C313" s="10"/>
@@ -11618,7 +11614,7 @@
       <c r="Y313" s="14"/>
       <c r="Z313" s="14"/>
     </row>
-    <row r="314" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A314" s="13"/>
       <c r="B314" s="11"/>
       <c r="C314" s="10"/>
@@ -11646,7 +11642,7 @@
       <c r="Y314" s="14"/>
       <c r="Z314" s="14"/>
     </row>
-    <row r="315" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A315" s="13"/>
       <c r="B315" s="11"/>
       <c r="C315" s="10"/>
@@ -11674,7 +11670,7 @@
       <c r="Y315" s="14"/>
       <c r="Z315" s="14"/>
     </row>
-    <row r="316" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A316" s="13"/>
       <c r="B316" s="11"/>
       <c r="C316" s="10"/>
@@ -11702,7 +11698,7 @@
       <c r="Y316" s="14"/>
       <c r="Z316" s="14"/>
     </row>
-    <row r="317" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A317" s="13"/>
       <c r="B317" s="11"/>
       <c r="C317" s="10"/>
@@ -11730,7 +11726,7 @@
       <c r="Y317" s="14"/>
       <c r="Z317" s="14"/>
     </row>
-    <row r="318" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A318" s="13"/>
       <c r="B318" s="17"/>
       <c r="C318" s="10"/>
@@ -11758,7 +11754,7 @@
       <c r="Y318" s="14"/>
       <c r="Z318" s="14"/>
     </row>
-    <row r="319" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A319" s="11"/>
       <c r="B319" s="17"/>
       <c r="C319" s="10"/>
@@ -11786,7 +11782,7 @@
       <c r="Y319" s="14"/>
       <c r="Z319" s="14"/>
     </row>
-    <row r="320" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A320" s="11"/>
       <c r="B320" s="14"/>
       <c r="C320" s="21"/>
@@ -11814,7 +11810,7 @@
       <c r="Y320" s="14"/>
       <c r="Z320" s="14"/>
     </row>
-    <row r="321" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A321" s="11"/>
       <c r="B321" s="14"/>
       <c r="C321" s="21"/>
@@ -11842,7 +11838,7 @@
       <c r="Y321" s="14"/>
       <c r="Z321" s="14"/>
     </row>
-    <row r="322" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A322" s="11"/>
       <c r="B322" s="14"/>
       <c r="C322" s="21"/>
@@ -11870,7 +11866,7 @@
       <c r="Y322" s="14"/>
       <c r="Z322" s="14"/>
     </row>
-    <row r="323" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A323" s="11"/>
       <c r="B323" s="14"/>
       <c r="C323" s="21"/>
@@ -11898,7 +11894,7 @@
       <c r="Y323" s="14"/>
       <c r="Z323" s="14"/>
     </row>
-    <row r="324" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A324" s="11"/>
       <c r="B324" s="14"/>
       <c r="C324" s="21"/>
@@ -11926,7 +11922,7 @@
       <c r="Y324" s="14"/>
       <c r="Z324" s="14"/>
     </row>
-    <row r="325" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A325" s="11"/>
       <c r="B325" s="14"/>
       <c r="C325" s="21"/>
@@ -11954,7 +11950,7 @@
       <c r="Y325" s="14"/>
       <c r="Z325" s="14"/>
     </row>
-    <row r="326" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A326" s="11"/>
       <c r="B326" s="14"/>
       <c r="C326" s="21"/>
@@ -11982,7 +11978,7 @@
       <c r="Y326" s="14"/>
       <c r="Z326" s="14"/>
     </row>
-    <row r="327" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A327" s="11"/>
       <c r="B327" s="14"/>
       <c r="C327" s="21"/>
@@ -12010,7 +12006,7 @@
       <c r="Y327" s="14"/>
       <c r="Z327" s="14"/>
     </row>
-    <row r="328" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A328" s="11"/>
       <c r="B328" s="14"/>
       <c r="C328" s="21"/>
@@ -12038,7 +12034,7 @@
       <c r="Y328" s="14"/>
       <c r="Z328" s="14"/>
     </row>
-    <row r="329" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A329" s="11"/>
       <c r="B329" s="14"/>
       <c r="C329" s="21"/>
@@ -12066,7 +12062,7 @@
       <c r="Y329" s="14"/>
       <c r="Z329" s="14"/>
     </row>
-    <row r="330" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A330" s="11"/>
       <c r="B330" s="14"/>
       <c r="C330" s="21"/>
@@ -12094,7 +12090,7 @@
       <c r="Y330" s="14"/>
       <c r="Z330" s="14"/>
     </row>
-    <row r="331" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A331" s="14"/>
       <c r="B331" s="14"/>
       <c r="C331" s="21"/>
@@ -12122,7 +12118,7 @@
       <c r="Y331" s="14"/>
       <c r="Z331" s="14"/>
     </row>
-    <row r="332" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A332" s="14"/>
       <c r="B332" s="14"/>
       <c r="C332" s="21"/>
@@ -12150,7 +12146,7 @@
       <c r="Y332" s="14"/>
       <c r="Z332" s="14"/>
     </row>
-    <row r="333" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A333" s="14"/>
       <c r="B333" s="14"/>
       <c r="C333" s="21"/>
@@ -12178,7 +12174,7 @@
       <c r="Y333" s="14"/>
       <c r="Z333" s="14"/>
     </row>
-    <row r="334" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A334" s="14"/>
       <c r="B334" s="14"/>
       <c r="C334" s="21"/>
@@ -12206,7 +12202,7 @@
       <c r="Y334" s="14"/>
       <c r="Z334" s="14"/>
     </row>
-    <row r="335" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A335" s="11"/>
       <c r="B335" s="14"/>
       <c r="C335" s="21"/>
@@ -12234,7 +12230,7 @@
       <c r="Y335" s="14"/>
       <c r="Z335" s="14"/>
     </row>
-    <row r="336" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A336" s="14"/>
       <c r="B336" s="14"/>
       <c r="C336" s="21"/>
@@ -12262,7 +12258,7 @@
       <c r="Y336" s="14"/>
       <c r="Z336" s="14"/>
     </row>
-    <row r="337" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A337" s="14"/>
       <c r="B337" s="14"/>
       <c r="C337" s="21"/>
@@ -12290,7 +12286,7 @@
       <c r="Y337" s="14"/>
       <c r="Z337" s="14"/>
     </row>
-    <row r="338" spans="1:26" s="5" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:26" s="5" customFormat="1" ht="12.75">
       <c r="A338" s="14"/>
       <c r="B338" s="14"/>
       <c r="C338" s="21"/>
@@ -12318,7 +12314,7 @@
       <c r="Y338" s="14"/>
       <c r="Z338" s="14"/>
     </row>
-    <row r="339" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:26" ht="12.75">
       <c r="A339" s="14"/>
       <c r="B339" s="14"/>
       <c r="C339" s="21"/>
@@ -12346,7 +12342,7 @@
       <c r="Y339" s="3"/>
       <c r="Z339" s="3"/>
     </row>
-    <row r="340" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:26" ht="12.75">
       <c r="A340" s="14"/>
       <c r="B340" s="14"/>
       <c r="C340" s="21"/>
@@ -12374,7 +12370,7 @@
       <c r="Y340" s="3"/>
       <c r="Z340" s="3"/>
     </row>
-    <row r="341" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:26" ht="12.75">
       <c r="A341" s="14"/>
       <c r="B341" s="14"/>
       <c r="C341" s="21"/>
@@ -12402,7 +12398,7 @@
       <c r="Y341" s="3"/>
       <c r="Z341" s="3"/>
     </row>
-    <row r="342" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:26" ht="12.75">
       <c r="A342" s="11"/>
       <c r="B342" s="14"/>
       <c r="C342" s="21"/>
@@ -12430,7 +12426,7 @@
       <c r="Y342" s="3"/>
       <c r="Z342" s="3"/>
     </row>
-    <row r="343" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:26" ht="12.75">
       <c r="A343" s="11"/>
       <c r="B343" s="14"/>
       <c r="C343" s="21"/>
@@ -12458,7 +12454,7 @@
       <c r="Y343" s="3"/>
       <c r="Z343" s="3"/>
     </row>
-    <row r="344" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:26" ht="12.75">
       <c r="A344" s="11"/>
       <c r="B344" s="14"/>
       <c r="C344" s="21"/>
@@ -12486,7 +12482,7 @@
       <c r="Y344" s="3"/>
       <c r="Z344" s="3"/>
     </row>
-    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:26" ht="15.75" customHeight="1">
       <c r="A345" s="1"/>
       <c r="B345" s="3"/>
       <c r="C345" s="4"/>
@@ -12494,7 +12490,7 @@
       <c r="E345" s="2"/>
       <c r="F345" s="85"/>
     </row>
-    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:26" ht="15.75" customHeight="1">
       <c r="A346" s="1"/>
       <c r="B346" s="3"/>
       <c r="C346" s="4"/>
@@ -12502,7 +12498,7 @@
       <c r="E346" s="2"/>
       <c r="F346" s="85"/>
     </row>
-    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:26" ht="15.75" customHeight="1">
       <c r="A347" s="1"/>
       <c r="B347" s="3"/>
       <c r="C347" s="4"/>
@@ -12510,7 +12506,7 @@
       <c r="E347" s="2"/>
       <c r="F347" s="85"/>
     </row>
-    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:26" ht="15.75" customHeight="1">
       <c r="A348" s="1"/>
       <c r="B348" s="3"/>
       <c r="C348" s="4"/>
@@ -12518,7 +12514,7 @@
       <c r="E348" s="2"/>
       <c r="F348" s="85"/>
     </row>
-    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:26" ht="15.75" customHeight="1">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="4"/>
@@ -12526,7 +12522,7 @@
       <c r="E349" s="2"/>
       <c r="F349" s="85"/>
     </row>
-    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:26" ht="15.75" customHeight="1">
       <c r="A350" s="1"/>
       <c r="B350" s="3"/>
       <c r="C350" s="4"/>
@@ -12549,22 +12545,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="24" width="11.109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="26" max="37" width="11.109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.88671875" style="57"/>
+    <col min="1" max="24" width="11.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="26" max="37" width="11.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.85546875" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37">
       <c r="A1" s="58">
         <v>2.8736000000000001E-2</v>
       </c>
@@ -12677,7 +12673,7 @@
         <v>-1.5088000000000001E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37">
       <c r="A2" s="58">
         <v>2.6903E-2</v>
       </c>
@@ -12790,7 +12786,7 @@
         <v>-1.4149E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37">
       <c r="A3" s="58">
         <v>1.8450000000000001E-2</v>
       </c>
@@ -12903,7 +12899,7 @@
         <v>-1.3894E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37">
       <c r="A4" s="58">
         <v>1.9012999999999999E-2</v>
       </c>
@@ -13016,7 +13012,7 @@
         <v>-9.0609999999999996E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37">
       <c r="A5" s="58">
         <v>1.4237E-2</v>
       </c>
@@ -13129,7 +13125,7 @@
         <v>-9.3930000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37">
       <c r="A6" s="58">
         <v>1.2288E-2</v>
       </c>
@@ -13242,7 +13238,7 @@
         <v>-8.2489999999999994E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37">
       <c r="A7" s="58">
         <v>9.0200000000000002E-3</v>
       </c>
@@ -13355,7 +13351,7 @@
         <v>-7.1240000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37">
       <c r="A8" s="58">
         <v>8.0599999999999995E-3</v>
       </c>
@@ -13468,7 +13464,7 @@
         <v>-6.9670000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37">
       <c r="A9" s="58">
         <v>6.3819999999999997E-3</v>
       </c>
@@ -13581,7 +13577,7 @@
         <v>-5.0689999999999997E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37">
       <c r="A10" s="58">
         <v>5.5560000000000002E-3</v>
       </c>
@@ -13694,7 +13690,7 @@
         <v>-4.744E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37">
       <c r="A11" s="58">
         <v>3.98E-3</v>
       </c>
@@ -13807,7 +13803,7 @@
         <v>-4.0850000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37">
       <c r="A12" s="58">
         <v>4.3E-3</v>
       </c>
@@ -13920,7 +13916,7 @@
         <v>-2.4840000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37">
       <c r="A13" s="58">
         <v>1.686E-3</v>
       </c>
@@ -14033,7 +14029,7 @@
         <v>-2.6159999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37">
       <c r="A14" s="58">
         <v>1.4859999999999999E-3</v>
       </c>
@@ -14146,7 +14142,7 @@
         <v>-1.6310000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37">
       <c r="A15" s="58">
         <v>2.0699999999999998E-3</v>
       </c>
@@ -14259,7 +14255,7 @@
         <v>-1.121E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37">
       <c r="A16" s="58">
         <v>6.3900000000000003E-4</v>
       </c>
@@ -14372,7 +14368,7 @@
         <v>-7.6199999999999998E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37">
       <c r="A17" s="58">
         <v>1.8699999999999999E-4</v>
       </c>
@@ -14485,7 +14481,7 @@
         <v>-4.6E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37">
       <c r="A18" s="58">
         <v>-7.9999999999999996E-6</v>
       </c>
@@ -14598,7 +14594,7 @@
         <v>-6.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37">
       <c r="A19" s="58">
         <v>-1.157E-3</v>
       </c>
@@ -14711,7 +14707,7 @@
         <v>5.13E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37">
       <c r="A20" s="58">
         <v>-8.7399999999999999E-4</v>
       </c>
@@ -14824,7 +14820,7 @@
         <v>9.5699999999999995E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37">
       <c r="A21" s="58">
         <v>-1.5759999999999999E-3</v>
       </c>
@@ -14937,7 +14933,7 @@
         <v>5.3899999999999998E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37">
       <c r="A22" s="58">
         <v>-1.372E-3</v>
       </c>
@@ -15050,7 +15046,7 @@
         <v>1.183E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37">
       <c r="A23" s="58">
         <v>-1.3860000000000001E-3</v>
       </c>
@@ -15163,7 +15159,7 @@
         <v>1.225E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37">
       <c r="A24" s="58">
         <v>-1.7359999999999999E-3</v>
       </c>
@@ -15276,7 +15272,7 @@
         <v>9.3800000000000003E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37">
       <c r="A25" s="58">
         <v>-1.3680000000000001E-3</v>
       </c>
@@ -15389,7 +15385,7 @@
         <v>1.3110000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37">
       <c r="A26" s="58">
         <v>-1.1999999999999999E-3</v>
       </c>
@@ -15502,7 +15498,7 @@
         <v>1.073E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37">
       <c r="A27" s="58">
         <v>-1.369E-3</v>
       </c>
@@ -15615,7 +15611,7 @@
         <v>1.256E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37">
       <c r="A28" s="58">
         <v>-1.279E-3</v>
       </c>
@@ -15728,7 +15724,7 @@
         <v>1.4710000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37">
       <c r="A29" s="58">
         <v>-1.029E-3</v>
       </c>
@@ -15841,7 +15837,7 @@
         <v>1.122E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37">
       <c r="A30" s="58">
         <v>-6.29E-4</v>
       </c>
@@ -15954,7 +15950,7 @@
         <v>1.3370000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37">
       <c r="A31" s="58">
         <v>-8.9599999999999999E-4</v>
       </c>
@@ -16067,7 +16063,7 @@
         <v>1.428E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37">
       <c r="A32" s="58">
         <v>-1.124E-3</v>
       </c>
@@ -16180,7 +16176,7 @@
         <v>1.4250000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37">
       <c r="A33" s="58">
         <v>-1.1640000000000001E-3</v>
       </c>
@@ -16293,7 +16289,7 @@
         <v>1.604E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37">
       <c r="A34" s="58">
         <v>-1.653E-3</v>
       </c>
@@ -16406,7 +16402,7 @@
         <v>1.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37">
       <c r="A35" s="58">
         <v>-1.5479999999999999E-3</v>
       </c>
@@ -16519,7 +16515,7 @@
         <v>1.6930000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37">
       <c r="A36" s="58">
         <v>-2.0149999999999999E-3</v>
       </c>
@@ -16632,7 +16628,7 @@
         <v>1.8749999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37">
       <c r="A37" s="58">
         <v>-2.5630000000000002E-3</v>
       </c>
@@ -16745,7 +16741,7 @@
         <v>1.709E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37">
       <c r="A38" s="58">
         <v>-2.405E-3</v>
       </c>
@@ -16858,7 +16854,7 @@
         <v>1.8699999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37">
       <c r="A39" s="58">
         <v>-1.8699999999999999E-3</v>
       </c>
@@ -16971,7 +16967,7 @@
         <v>1.7669999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37">
       <c r="A40" s="58">
         <v>-2.7100000000000002E-3</v>
       </c>
@@ -17084,7 +17080,7 @@
         <v>1.5950000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37">
       <c r="A41" s="58">
         <v>-3.0920000000000001E-3</v>
       </c>
@@ -17197,7 +17193,7 @@
         <v>1.013E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37">
       <c r="A42" s="58">
         <v>-3.3170000000000001E-3</v>
       </c>
@@ -17310,7 +17306,7 @@
         <v>9.9799999999999997E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37">
       <c r="A43" s="58">
         <v>-3.509E-3</v>
       </c>
@@ -17423,7 +17419,7 @@
         <v>1.0460000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37">
       <c r="A44" s="58">
         <v>-3.323E-3</v>
       </c>
@@ -17536,7 +17532,7 @@
         <v>8.3299999999999997E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37">
       <c r="A45" s="58">
         <v>-3.4139999999999999E-3</v>
       </c>
@@ -17649,7 +17645,7 @@
         <v>8.1400000000000005E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37">
       <c r="A46" s="58">
         <v>-3.1359999999999999E-3</v>
       </c>
@@ -17762,7 +17758,7 @@
         <v>8.1999999999999998E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37">
       <c r="A47" s="58">
         <v>-3.042E-3</v>
       </c>
@@ -17875,7 +17871,7 @@
         <v>6.1799999999999995E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37">
       <c r="A48" s="58">
         <v>-2.6900000000000001E-3</v>
       </c>
@@ -17988,7 +17984,7 @@
         <v>7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37">
       <c r="A49" s="58">
         <v>-2.3890000000000001E-3</v>
       </c>
@@ -18101,7 +18097,7 @@
         <v>7.7399999999999995E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37">
       <c r="A50" s="58">
         <v>-2.3649999999999999E-3</v>
       </c>
@@ -18214,7 +18210,7 @@
         <v>7.8799999999999996E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37">
       <c r="A51" s="58">
         <v>-2.2290000000000001E-3</v>
       </c>
@@ -18327,7 +18323,7 @@
         <v>1.0189999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37">
       <c r="A52" s="58">
         <v>-2.5309999999999998E-3</v>
       </c>
@@ -18440,7 +18436,7 @@
         <v>1.0709999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37">
       <c r="A53" s="58">
         <v>-3.1120000000000002E-3</v>
       </c>
@@ -18553,7 +18549,7 @@
         <v>9.3400000000000004E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37">
       <c r="A54" s="58">
         <v>-3.2209999999999999E-3</v>
       </c>
@@ -18666,7 +18662,7 @@
         <v>1.2930000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37">
       <c r="A55" s="58">
         <v>-3.16E-3</v>
       </c>
@@ -18779,7 +18775,7 @@
         <v>1.2310000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37">
       <c r="A56" s="58">
         <v>-3.1689999999999999E-3</v>
       </c>
@@ -18892,7 +18888,7 @@
         <v>1.209E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37">
       <c r="A57" s="58">
         <v>-2.7049999999999999E-3</v>
       </c>
@@ -19005,7 +19001,7 @@
         <v>9.5200000000000005E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37">
       <c r="A58" s="58">
         <v>-2.088E-3</v>
       </c>
@@ -19118,7 +19114,7 @@
         <v>1.085E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37">
       <c r="A59" s="58">
         <v>-1.7470000000000001E-3</v>
       </c>
@@ -19231,7 +19227,7 @@
         <v>1.1429999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37">
       <c r="A60" s="58">
         <v>-1.395E-3</v>
       </c>
@@ -19344,7 +19340,7 @@
         <v>1.351E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37">
       <c r="A61" s="58">
         <v>-1.8879999999999999E-3</v>
       </c>
@@ -19457,7 +19453,7 @@
         <v>1.578E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37">
       <c r="A62" s="58">
         <v>-2.4190000000000001E-3</v>
       </c>
@@ -19570,7 +19566,7 @@
         <v>1.8320000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37">
       <c r="A63" s="58">
         <v>-2.696E-3</v>
       </c>
@@ -19683,7 +19679,7 @@
         <v>2.111E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37">
       <c r="A64" s="58">
         <v>-3.2940000000000001E-3</v>
       </c>
@@ -19796,7 +19792,7 @@
         <v>2.1540000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37">
       <c r="A65" s="58">
         <v>-3.3790000000000001E-3</v>
       </c>
@@ -19909,7 +19905,7 @@
         <v>2.2330000000000002E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37">
       <c r="A66" s="58">
         <v>-3.297E-3</v>
       </c>
@@ -20022,7 +20018,7 @@
         <v>2.1779999999999998E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37">
       <c r="A67" s="58">
         <v>-3.5360000000000001E-3</v>
       </c>
@@ -20135,7 +20131,7 @@
         <v>1.977E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37">
       <c r="A68" s="58">
         <v>-3.3409999999999998E-3</v>
       </c>
@@ -20248,7 +20244,7 @@
         <v>2.1280000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37">
       <c r="A69" s="58">
         <v>-3.0479999999999999E-3</v>
       </c>
@@ -20361,7 +20357,7 @@
         <v>1.9239999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37">
       <c r="A70" s="58">
         <v>-2.8419999999999999E-3</v>
       </c>
@@ -20474,7 +20470,7 @@
         <v>1.681E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37">
       <c r="A71" s="58">
         <v>-2.869E-3</v>
       </c>
@@ -20587,7 +20583,7 @@
         <v>2.032E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37">
       <c r="A72" s="58">
         <v>-3.065E-3</v>
       </c>
@@ -20700,7 +20696,7 @@
         <v>1.7279999999999999E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37">
       <c r="A73" s="58">
         <v>-3.4810000000000002E-3</v>
       </c>
@@ -20813,7 +20809,7 @@
         <v>1.7650000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37">
       <c r="A74" s="58">
         <v>-2.892E-3</v>
       </c>
@@ -20926,7 +20922,7 @@
         <v>1.8959999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37">
       <c r="A75" s="58">
         <v>-3.3939999999999999E-3</v>
       </c>
@@ -21039,7 +21035,7 @@
         <v>1.572E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37">
       <c r="A76" s="58">
         <v>-3.5130000000000001E-3</v>
       </c>
@@ -21152,7 +21148,7 @@
         <v>1.9559999999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37">
       <c r="A77" s="58">
         <v>-3.2980000000000002E-3</v>
       </c>
@@ -21265,7 +21261,7 @@
         <v>1.7420000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37">
       <c r="A78" s="58">
         <v>-3.297E-3</v>
       </c>
@@ -21378,7 +21374,7 @@
         <v>1.474E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37">
       <c r="A79" s="58">
         <v>-2.9589999999999998E-3</v>
       </c>
@@ -21491,7 +21487,7 @@
         <v>1.7099999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37">
       <c r="A80" s="58">
         <v>-3.1229999999999999E-3</v>
       </c>
@@ -21604,7 +21600,7 @@
         <v>1.1559999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37">
       <c r="A81" s="58">
         <v>-2.8809999999999999E-3</v>
       </c>
@@ -21717,7 +21713,7 @@
         <v>1.1659999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37">
       <c r="A82" s="58">
         <v>-2.9510000000000001E-3</v>
       </c>
@@ -21830,7 +21826,7 @@
         <v>1.232E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37">
       <c r="A83" s="58">
         <v>-3.0070000000000001E-3</v>
       </c>
@@ -21943,7 +21939,7 @@
         <v>7.18E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37">
       <c r="A84" s="60">
         <v>-2.3990000000000001E-3</v>
       </c>
@@ -22067,22 +22063,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="24" width="11.109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.5546875" style="57" bestFit="1" customWidth="1"/>
-    <col min="26" max="37" width="11.109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="8.88671875" style="57"/>
+    <col min="1" max="24" width="11.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="26" max="37" width="11.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="8.85546875" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37">
       <c r="A1" s="59">
         <v>-4.2999999999999999E-4</v>
       </c>
@@ -22195,7 +22191,7 @@
         <v>2.9970000000000001E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37">
       <c r="A2" s="59">
         <v>-1.1086E-2</v>
       </c>
@@ -22308,7 +22304,7 @@
         <v>2.3499999999999999E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37">
       <c r="A3" s="59">
         <v>-3.7090000000000001E-3</v>
       </c>
@@ -22421,7 +22417,7 @@
         <v>-3.8539999999999998E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37">
       <c r="A4" s="59">
         <v>-4.4819999999999999E-3</v>
       </c>
@@ -22534,7 +22530,7 @@
         <v>-6.515E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37">
       <c r="A5" s="59">
         <v>8.0800000000000002E-4</v>
       </c>
@@ -22647,7 +22643,7 @@
         <v>-8.6029999999999995E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37">
       <c r="A6" s="59">
         <v>-3.6499999999999998E-4</v>
       </c>
@@ -22760,7 +22756,7 @@
         <v>-9.0589999999999993E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37">
       <c r="A7" s="59">
         <v>6.8999999999999997E-5</v>
       </c>
@@ -22873,7 +22869,7 @@
         <v>-9.4970000000000002E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37">
       <c r="A8" s="59">
         <v>-1.688E-3</v>
       </c>
@@ -22986,7 +22982,7 @@
         <v>-8.3549999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37">
       <c r="A9" s="59">
         <v>-2.4889999999999999E-3</v>
       </c>
@@ -23099,7 +23095,7 @@
         <v>-7.2960000000000004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37">
       <c r="A10" s="59">
         <v>-4.4010000000000004E-3</v>
       </c>
@@ -23212,7 +23208,7 @@
         <v>-6.3759999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37">
       <c r="A11" s="59">
         <v>-5.6550000000000003E-3</v>
       </c>
@@ -23325,7 +23321,7 @@
         <v>-5.2230000000000002E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37">
       <c r="A12" s="59">
         <v>-6.5259999999999997E-3</v>
       </c>
@@ -23438,7 +23434,7 @@
         <v>-4.0699999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37">
       <c r="A13" s="59">
         <v>-5.3420000000000004E-3</v>
       </c>
@@ -23551,7 +23547,7 @@
         <v>-3.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37">
       <c r="A14" s="59">
         <v>-6.3709999999999999E-3</v>
       </c>
@@ -23664,7 +23660,7 @@
         <v>-2.2780000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37">
       <c r="A15" s="59">
         <v>-7.2680000000000002E-3</v>
       </c>
@@ -23777,7 +23773,7 @@
         <v>-1.8E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37">
       <c r="A16" s="59">
         <v>-8.8789999999999997E-3</v>
       </c>
@@ -23890,7 +23886,7 @@
         <v>-1.041E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37">
       <c r="A17" s="59">
         <v>-1.0312999999999999E-2</v>
       </c>
@@ -24003,7 +23999,7 @@
         <v>-7.6400000000000003E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37">
       <c r="A18" s="59">
         <v>-1.0645999999999999E-2</v>
       </c>
@@ -24116,7 +24112,7 @@
         <v>-2.52E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37">
       <c r="A19" s="59">
         <v>-1.1832000000000001E-2</v>
       </c>
@@ -24229,7 +24225,7 @@
         <v>-1.85E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37">
       <c r="A20" s="59">
         <v>-1.2777999999999999E-2</v>
       </c>
@@ -24342,7 +24338,7 @@
         <v>1.12E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37">
       <c r="A21" s="59">
         <v>-1.3264E-2</v>
       </c>
@@ -24455,7 +24451,7 @@
         <v>3.3199999999999999E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37">
       <c r="A22" s="59">
         <v>-1.3742000000000001E-2</v>
       </c>
@@ -24568,7 +24564,7 @@
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37">
       <c r="A23" s="59">
         <v>-1.4274999999999999E-2</v>
       </c>
@@ -24681,7 +24677,7 @@
         <v>6.8499999999999995E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37">
       <c r="A24" s="59">
         <v>-1.4021E-2</v>
       </c>
@@ -24794,7 +24790,7 @@
         <v>7.4200000000000004E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37">
       <c r="A25" s="59">
         <v>-1.371E-2</v>
       </c>
@@ -24907,7 +24903,7 @@
         <v>7.6199999999999998E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37">
       <c r="A26" s="59">
         <v>-1.3485E-2</v>
       </c>
@@ -25020,7 +25016,7 @@
         <v>8.4500000000000005E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37">
       <c r="A27" s="59">
         <v>-1.3061E-2</v>
       </c>
@@ -25133,7 +25129,7 @@
         <v>9.3800000000000003E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37">
       <c r="A28" s="59">
         <v>-1.3043000000000001E-2</v>
       </c>
@@ -25246,7 +25242,7 @@
         <v>9.2900000000000003E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37">
       <c r="A29" s="59">
         <v>-1.2551E-2</v>
       </c>
@@ -25359,7 +25355,7 @@
         <v>1.0349999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37">
       <c r="A30" s="59">
         <v>-1.2636E-2</v>
       </c>
@@ -25472,7 +25468,7 @@
         <v>1.0059999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37">
       <c r="A31" s="59">
         <v>-1.2638E-2</v>
       </c>
@@ -25585,7 +25581,7 @@
         <v>1.1720000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37">
       <c r="A32" s="59">
         <v>-1.2621E-2</v>
       </c>
@@ -25698,7 +25694,7 @@
         <v>1.248E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37">
       <c r="A33" s="59">
         <v>-1.2985999999999999E-2</v>
       </c>
@@ -25811,7 +25807,7 @@
         <v>1.3619999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37">
       <c r="A34" s="59">
         <v>-1.3239000000000001E-2</v>
       </c>
@@ -25924,7 +25920,7 @@
         <v>1.5430000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37">
       <c r="A35" s="59">
         <v>-1.358E-2</v>
       </c>
@@ -26037,7 +26033,7 @@
         <v>1.6620000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37">
       <c r="A36" s="59">
         <v>-1.393E-2</v>
       </c>
@@ -26150,7 +26146,7 @@
         <v>1.799E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37">
       <c r="A37" s="59">
         <v>-1.3918E-2</v>
       </c>
@@ -26263,7 +26259,7 @@
         <v>1.8259999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37">
       <c r="A38" s="59">
         <v>-1.376E-2</v>
       </c>
@@ -26376,7 +26372,7 @@
         <v>1.9300000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37">
       <c r="A39" s="59">
         <v>-1.3846000000000001E-2</v>
       </c>
@@ -26489,7 +26485,7 @@
         <v>1.9400000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37">
       <c r="A40" s="59">
         <v>-1.3856E-2</v>
       </c>
@@ -26602,7 +26598,7 @@
         <v>1.9910000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37">
       <c r="A41" s="59">
         <v>-1.3339999999999999E-2</v>
       </c>
@@ -26715,7 +26711,7 @@
         <v>2.666E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37">
       <c r="A42" s="59">
         <v>-1.3202E-2</v>
       </c>
@@ -26828,7 +26824,7 @@
         <v>2.6450000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37">
       <c r="A43" s="59">
         <v>-1.3365E-2</v>
       </c>
@@ -26941,7 +26937,7 @@
         <v>2.7339999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37">
       <c r="A44" s="59">
         <v>-1.2933E-2</v>
       </c>
@@ -27054,7 +27050,7 @@
         <v>2.895E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37">
       <c r="A45" s="59">
         <v>-1.2616E-2</v>
       </c>
@@ -27167,7 +27163,7 @@
         <v>2.8279999999999998E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37">
       <c r="A46" s="59">
         <v>-1.2196E-2</v>
       </c>
@@ -27280,7 +27276,7 @@
         <v>2.97E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37">
       <c r="A47" s="59">
         <v>-1.1993E-2</v>
       </c>
@@ -27393,7 +27389,7 @@
         <v>2.97E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37">
       <c r="A48" s="59">
         <v>-1.2043999999999999E-2</v>
       </c>
@@ -27506,7 +27502,7 @@
         <v>3.0530000000000002E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37">
       <c r="A49" s="59">
         <v>-1.1797E-2</v>
       </c>
@@ -27619,7 +27615,7 @@
         <v>3.1310000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37">
       <c r="A50" s="59">
         <v>-1.1926000000000001E-2</v>
       </c>
@@ -27732,7 +27728,7 @@
         <v>3.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37">
       <c r="A51" s="59">
         <v>-1.2146000000000001E-2</v>
       </c>
@@ -27845,7 +27841,7 @@
         <v>3.1970000000000002E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37">
       <c r="A52" s="59">
         <v>-1.2326999999999999E-2</v>
       </c>
@@ -27958,7 +27954,7 @@
         <v>3.1979999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37">
       <c r="A53" s="59">
         <v>-1.2701E-2</v>
       </c>
@@ -28071,7 +28067,7 @@
         <v>3.0799999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37">
       <c r="A54" s="59">
         <v>-1.2286999999999999E-2</v>
       </c>
@@ -28184,7 +28180,7 @@
         <v>3.0929999999999998E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37">
       <c r="A55" s="59">
         <v>-1.2041E-2</v>
       </c>
@@ -28297,7 +28293,7 @@
         <v>2.908E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37">
       <c r="A56" s="59">
         <v>-1.1728000000000001E-2</v>
       </c>
@@ -28410,7 +28406,7 @@
         <v>2.7699999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37">
       <c r="A57" s="59">
         <v>-1.1338000000000001E-2</v>
       </c>
@@ -28523,7 +28519,7 @@
         <v>2.663E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37">
       <c r="A58" s="59">
         <v>-1.1016E-2</v>
       </c>
@@ -28636,7 +28632,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37">
       <c r="A59" s="59">
         <v>-1.0921E-2</v>
       </c>
@@ -28749,7 +28745,7 @@
         <v>2.7200000000000002E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37">
       <c r="A60" s="59">
         <v>-1.1044E-2</v>
       </c>
@@ -28862,7 +28858,7 @@
         <v>2.8479999999999998E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37">
       <c r="A61" s="59">
         <v>-1.1351E-2</v>
       </c>
@@ -28975,7 +28971,7 @@
         <v>2.9239999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37">
       <c r="A62" s="59">
         <v>-1.1684E-2</v>
       </c>
@@ -29088,7 +29084,7 @@
         <v>3.0950000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37">
       <c r="A63" s="59">
         <v>-1.2086E-2</v>
       </c>
@@ -29201,7 +29197,7 @@
         <v>3.0530000000000002E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37">
       <c r="A64" s="59">
         <v>-1.2175E-2</v>
       </c>
@@ -29314,7 +29310,7 @@
         <v>2.9129999999999998E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37">
       <c r="A65" s="59">
         <v>-1.2197E-2</v>
       </c>
@@ -29427,7 +29423,7 @@
         <v>2.8059999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37">
       <c r="A66" s="59">
         <v>-1.2231000000000001E-2</v>
       </c>
@@ -29540,7 +29536,7 @@
         <v>2.6050000000000001E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37">
       <c r="A67" s="59">
         <v>-1.2406E-2</v>
       </c>
@@ -29653,7 +29649,7 @@
         <v>2.4099999999999998E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37">
       <c r="A68" s="59">
         <v>-1.2218E-2</v>
       </c>
@@ -29766,7 +29762,7 @@
         <v>2.284E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37">
       <c r="A69" s="59">
         <v>-1.1972999999999999E-2</v>
       </c>
@@ -29879,7 +29875,7 @@
         <v>2.15E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37">
       <c r="A70" s="59">
         <v>-1.1931000000000001E-2</v>
       </c>
@@ -29992,7 +29988,7 @@
         <v>1.9849999999999998E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37">
       <c r="A71" s="59">
         <v>-1.1606999999999999E-2</v>
       </c>
@@ -30105,7 +30101,7 @@
         <v>1.89E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37">
       <c r="A72" s="59">
         <v>-1.1645000000000001E-2</v>
       </c>
@@ -30218,7 +30214,7 @@
         <v>1.8370000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37">
       <c r="A73" s="59">
         <v>-1.1606999999999999E-2</v>
       </c>
@@ -30331,7 +30327,7 @@
         <v>1.7619999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37">
       <c r="A74" s="59">
         <v>-1.1547999999999999E-2</v>
       </c>
@@ -30444,7 +30440,7 @@
         <v>1.7930000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37">
       <c r="A75" s="59">
         <v>-1.1668E-2</v>
       </c>
@@ -30557,7 +30553,7 @@
         <v>1.818E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37">
       <c r="A76" s="59">
         <v>-1.1806000000000001E-2</v>
       </c>
@@ -30670,7 +30666,7 @@
         <v>1.944E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37">
       <c r="A77" s="59">
         <v>-1.1991E-2</v>
       </c>
@@ -30783,7 +30779,7 @@
         <v>1.9759999999999999E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37">
       <c r="A78" s="59">
         <v>-1.1927999999999999E-2</v>
       </c>
@@ -30896,7 +30892,7 @@
         <v>2.101E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37">
       <c r="A79" s="59">
         <v>-1.1998999999999999E-2</v>
       </c>
@@ -31009,7 +31005,7 @@
         <v>2.0230000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37">
       <c r="A80" s="59">
         <v>-1.2161E-2</v>
       </c>
@@ -31122,7 +31118,7 @@
         <v>2.2179999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37">
       <c r="A81" s="59">
         <v>-1.2338E-2</v>
       </c>
@@ -31235,7 +31231,7 @@
         <v>2.2590000000000002E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37">
       <c r="A82" s="59">
         <v>-1.2394000000000001E-2</v>
       </c>
@@ -31348,7 +31344,7 @@
         <v>2.3019999999999998E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37">
       <c r="A83" s="59">
         <v>-1.2435999999999999E-2</v>
       </c>
@@ -31461,7 +31457,7 @@
         <v>2.47E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37">
       <c r="A84" s="59">
         <v>-1.2541E-2</v>
       </c>
